--- a/data/model_data/twfe_SALBC.xlsx
+++ b/data/model_data/twfe_SALBC.xlsx
@@ -391,16 +391,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>1646750.417682723</v>
+        <v>1646750.417681701</v>
       </c>
       <c r="C2">
-        <v>48398.40276571483</v>
+        <v>70645.79740739858</v>
       </c>
       <c r="D2">
-        <v>34.02489180591869</v>
+        <v>23.30995583764535</v>
       </c>
       <c r="E2">
-        <v>3.601377041657409E-223</v>
+        <v>8.429895704922932E-106</v>
       </c>
     </row>
     <row r="3">
@@ -410,16 +410,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>52996.29770455696</v>
+        <v>52996.29770459038</v>
       </c>
       <c r="C3">
-        <v>13031.7636569885</v>
+        <v>19022.10161003855</v>
       </c>
       <c r="D3">
-        <v>4.066701875470003</v>
+        <v>2.786037988390442</v>
       </c>
       <c r="E3">
-        <v>4.859839045215178E-05</v>
+        <v>0.005389136765495326</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>2479798.588633134</v>
+        <v>2479798.588634249</v>
       </c>
       <c r="C4">
-        <v>67284.9753165385</v>
+        <v>98214.00011452791</v>
       </c>
       <c r="D4">
-        <v>36.85516085823107</v>
+        <v>25.24893177899833</v>
       </c>
       <c r="E4">
-        <v>2.306086043301562E-256</v>
+        <v>2.151488513209668E-121</v>
       </c>
     </row>
     <row r="5">
@@ -448,16 +448,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>-1429294.411366908</v>
+        <v>-1429294.411365836</v>
       </c>
       <c r="C5">
-        <v>67284.97531654422</v>
+        <v>98214.00011452795</v>
       </c>
       <c r="D5">
-        <v>-21.24240076841447</v>
+        <v>-14.55285814343298</v>
       </c>
       <c r="E5">
-        <v>5.503118528469666E-95</v>
+        <v>1.509037852156125E-45</v>
       </c>
     </row>
     <row r="6">
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>-1666297.855810845</v>
+        <v>-1666297.855810097</v>
       </c>
       <c r="C6">
-        <v>67284.97531652918</v>
+        <v>98214.00011451944</v>
       </c>
       <c r="D6">
-        <v>-24.76478363813122</v>
+        <v>-16.96599114043987</v>
       </c>
       <c r="E6">
-        <v>4.079985955085791E-126</v>
+        <v>3.445654347885197E-60</v>
       </c>
     </row>
     <row r="7">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>-1517883.089909656</v>
+        <v>-1517883.089908815</v>
       </c>
       <c r="C7">
-        <v>67518.27399014636</v>
+        <v>98554.53967553457</v>
       </c>
       <c r="D7">
-        <v>-22.48107068215602</v>
+        <v>-15.40145278853773</v>
       </c>
       <c r="E7">
-        <v>1.625079958499937E-105</v>
+        <v>1.679381542393604E-50</v>
       </c>
     </row>
     <row r="8">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>-1624233.20102076</v>
+        <v>-1624233.201019624</v>
       </c>
       <c r="C8">
-        <v>67518.27399014706</v>
+        <v>98554.5396755213</v>
       </c>
       <c r="D8">
-        <v>-24.05620145529468</v>
+        <v>-16.48055184842029</v>
       </c>
       <c r="E8">
-        <v>1.451964919618917E-119</v>
+        <v>4.147887207970734E-57</v>
       </c>
     </row>
     <row r="9">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B9">
-        <v>-1417570.744700129</v>
+        <v>-1417570.744699041</v>
       </c>
       <c r="C9">
-        <v>67284.97531654117</v>
+        <v>98214.00011452107</v>
       </c>
       <c r="D9">
-        <v>-21.06816177060612</v>
+        <v>-14.43348955389357</v>
       </c>
       <c r="E9">
-        <v>1.527550293399164E-93</v>
+        <v>7.20815136343314E-45</v>
       </c>
     </row>
     <row r="10">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B10">
-        <v>-1013119.312132294</v>
+        <v>-1013119.312130933</v>
       </c>
       <c r="C10">
-        <v>67518.27399016509</v>
+        <v>98554.53967552904</v>
       </c>
       <c r="D10">
-        <v>-15.00511272370304</v>
+        <v>-10.27978331050425</v>
       </c>
       <c r="E10">
-        <v>1.468305094819052E-49</v>
+        <v>3.729963040707891E-24</v>
       </c>
     </row>
     <row r="11">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>-1753828.312132247</v>
+        <v>-1753828.312131039</v>
       </c>
       <c r="C11">
-        <v>67518.27399015785</v>
+        <v>98554.5396755348</v>
       </c>
       <c r="D11">
-        <v>-25.97560939410127</v>
+        <v>-17.79551016021243</v>
       </c>
       <c r="E11">
-        <v>1.250148321650453E-137</v>
+        <v>1.330560817138637E-65</v>
       </c>
     </row>
     <row r="12">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B12">
-        <v>-1778096.867687788</v>
+        <v>-1778096.867686521</v>
       </c>
       <c r="C12">
-        <v>67518.27399015751</v>
+        <v>98554.53967553159</v>
       </c>
       <c r="D12">
-        <v>-26.33504624165882</v>
+        <v>-18.04175508850734</v>
       </c>
       <c r="E12">
-        <v>4.015930501820965E-141</v>
+        <v>3.032938315108722E-67</v>
       </c>
     </row>
     <row r="13">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>-1503480.867687047</v>
+        <v>-1503480.867686595</v>
       </c>
       <c r="C13">
-        <v>67518.27399013477</v>
+        <v>98554.53967553527</v>
       </c>
       <c r="D13">
-        <v>-22.26776217512201</v>
+        <v>-15.25531824953379</v>
       </c>
       <c r="E13">
-        <v>1.141116384252619E-103</v>
+        <v>1.240780364711916E-49</v>
       </c>
     </row>
     <row r="14">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B14">
-        <v>-949178.3333340148</v>
+        <v>-949178.3333329301</v>
       </c>
       <c r="C14">
-        <v>67269.39330331917</v>
+        <v>98191.25548481746</v>
       </c>
       <c r="D14">
-        <v>-14.11010694052418</v>
+        <v>-9.666627935923419</v>
       </c>
       <c r="E14">
-        <v>3.683730637031078E-44</v>
+        <v>1.315131624192938E-21</v>
       </c>
     </row>
     <row r="15">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B15">
-        <v>-1693980.534354372</v>
+        <v>-1693980.534353337</v>
       </c>
       <c r="C15">
-        <v>67518.2739901555</v>
+        <v>98554.53967553758</v>
       </c>
       <c r="D15">
-        <v>-25.089215618891</v>
+        <v>-17.18825474635952</v>
       </c>
       <c r="E15">
-        <v>3.669510849932201E-129</v>
+        <v>1.273692674581002E-61</v>
       </c>
     </row>
     <row r="16">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B16">
-        <v>-1591228.444445345</v>
+        <v>-1591228.444443918</v>
       </c>
       <c r="C16">
-        <v>67269.39330332847</v>
+        <v>98191.25548481422</v>
       </c>
       <c r="D16">
-        <v>-23.65456809265755</v>
+        <v>-16.20539870467396</v>
       </c>
       <c r="E16">
-        <v>6.492854043979865E-116</v>
+        <v>2.160263045873528E-55</v>
       </c>
     </row>
     <row r="17">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B17">
-        <v>-1550776.777778208</v>
+        <v>-1550776.777777614</v>
       </c>
       <c r="C17">
-        <v>67269.39330331433</v>
+        <v>98191.25548483057</v>
       </c>
       <c r="D17">
-        <v>-23.05322973236629</v>
+        <v>-15.79343058728067</v>
       </c>
       <c r="E17">
-        <v>1.553479975744736E-110</v>
+        <v>7.314655066835592E-53</v>
       </c>
     </row>
     <row r="18">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B18">
-        <v>-1777588.423243314</v>
+        <v>-1777588.423241924</v>
       </c>
       <c r="C18">
-        <v>67518.27399015661</v>
+        <v>98554.53967552521</v>
       </c>
       <c r="D18">
-        <v>-26.32751577006346</v>
+        <v>-18.03659607253349</v>
       </c>
       <c r="E18">
-        <v>4.756829017384061E-141</v>
+        <v>3.284207143314607E-67</v>
       </c>
     </row>
     <row r="19">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B19">
-        <v>-1649879.444445265</v>
+        <v>-1649879.444444149</v>
       </c>
       <c r="C19">
-        <v>67269.39330332555</v>
+        <v>98191.25548482455</v>
       </c>
       <c r="D19">
-        <v>-24.52645049147041</v>
+        <v>-16.80271258675512</v>
       </c>
       <c r="E19">
-        <v>6.758422733386444E-124</v>
+        <v>3.808397772920447E-59</v>
       </c>
     </row>
     <row r="20">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B20">
-        <v>-1739455.444444597</v>
+        <v>-1739455.444444029</v>
       </c>
       <c r="C20">
-        <v>67269.39330330581</v>
+        <v>98191.25548481921</v>
       </c>
       <c r="D20">
-        <v>-25.85805161942965</v>
+        <v>-17.71497304780828</v>
       </c>
       <c r="E20">
-        <v>1.706329909156227E-136</v>
+        <v>4.546439160164452E-65</v>
       </c>
     </row>
     <row r="21">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B21">
-        <v>-1405496.312132563</v>
+        <v>-1405496.312131078</v>
       </c>
       <c r="C21">
-        <v>67518.27399017001</v>
+        <v>98554.53967553772</v>
       </c>
       <c r="D21">
-        <v>-20.81653201527618</v>
+        <v>-14.26110168804265</v>
       </c>
       <c r="E21">
-        <v>1.785452531878251E-91</v>
+        <v>6.772747505298316E-44</v>
       </c>
     </row>
     <row r="22">
@@ -771,16 +771,16 @@
         </is>
       </c>
       <c r="B22">
-        <v>-1779773.000000859</v>
+        <v>-1779772.999999627</v>
       </c>
       <c r="C22">
-        <v>67269.39330332681</v>
+        <v>98191.25548482098</v>
       </c>
       <c r="D22">
-        <v>-26.45739633737473</v>
+        <v>-18.12557534998374</v>
       </c>
       <c r="E22">
-        <v>2.552885282580984E-142</v>
+        <v>8.303774385523277E-68</v>
       </c>
     </row>
     <row r="23">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B23">
-        <v>1711742.910090307</v>
+        <v>1711742.910091463</v>
       </c>
       <c r="C23">
-        <v>67518.27399015546</v>
+        <v>98554.53967554112</v>
       </c>
       <c r="D23">
-        <v>25.35229070488219</v>
+        <v>17.36848364090403</v>
       </c>
       <c r="E23">
-        <v>1.184487605957701E-131</v>
+        <v>8.587081154975521E-63</v>
       </c>
     </row>
     <row r="24">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="B24">
-        <v>-1602160.423243521</v>
+        <v>-1602160.423242209</v>
       </c>
       <c r="C24">
-        <v>67518.27399016327</v>
+        <v>98554.53967553725</v>
       </c>
       <c r="D24">
-        <v>-23.72928584455432</v>
+        <v>-16.25658674391728</v>
       </c>
       <c r="E24">
-        <v>1.370268829750688E-116</v>
+        <v>1.039382744237913E-55</v>
       </c>
     </row>
     <row r="25">
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="B25">
-        <v>-1714905.534353969</v>
+        <v>-1714905.534353117</v>
       </c>
       <c r="C25">
-        <v>67518.27399014297</v>
+        <v>98554.53967552868</v>
       </c>
       <c r="D25">
-        <v>-25.39913171661244</v>
+        <v>-17.40057373307312</v>
       </c>
       <c r="E25">
-        <v>4.246420274926133E-132</v>
+        <v>5.301364396763557E-63</v>
       </c>
     </row>
     <row r="26">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>-1743735.978798361</v>
+        <v>-1743735.978797546</v>
       </c>
       <c r="C26">
-        <v>67518.27399014229</v>
+        <v>98554.53967552827</v>
       </c>
       <c r="D26">
-        <v>-25.82613381161</v>
+        <v>-17.6931066243976</v>
       </c>
       <c r="E26">
-        <v>3.464332314191026E-136</v>
+        <v>6.342522062806684E-65</v>
       </c>
     </row>
     <row r="27">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B27">
-        <v>-1269230.111111571</v>
+        <v>-1269230.111110886</v>
       </c>
       <c r="C27">
-        <v>67269.393303313</v>
+        <v>98191.2554848287</v>
       </c>
       <c r="D27">
-        <v>-18.86786915690917</v>
+        <v>-12.92610125865018</v>
       </c>
       <c r="E27">
-        <v>3.794894953596721E-76</v>
+        <v>1.108817325388803E-36</v>
       </c>
     </row>
     <row r="28">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="B28">
-        <v>-1320144.33333384</v>
+        <v>-1320144.333333159</v>
       </c>
       <c r="C28">
-        <v>67269.39330331546</v>
+        <v>98191.25548483124</v>
       </c>
       <c r="D28">
-        <v>-19.62473969969303</v>
+        <v>-13.4446221999585</v>
       </c>
       <c r="E28">
-        <v>5.918337398368568E-82</v>
+        <v>2.047581758621621E-39</v>
       </c>
     </row>
     <row r="29">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="B29">
-        <v>-899738.6454653941</v>
+        <v>-899738.6454642429</v>
       </c>
       <c r="C29">
-        <v>67518.27399015419</v>
+        <v>98554.53967552837</v>
       </c>
       <c r="D29">
-        <v>-13.32585376214738</v>
+        <v>-9.129347551380761</v>
       </c>
       <c r="E29">
-        <v>1.128664352539744E-39</v>
+        <v>1.724819865707693E-19</v>
       </c>
     </row>
     <row r="30">
@@ -923,16 +923,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>-1613361.11111133</v>
+        <v>-1613361.111110801</v>
       </c>
       <c r="C30">
-        <v>67269.3933033077</v>
+        <v>98191.25548482429</v>
       </c>
       <c r="D30">
-        <v>-23.98358349742986</v>
+        <v>-16.43080234736534</v>
       </c>
       <c r="E30">
-        <v>6.689393994496033E-119</v>
+        <v>8.507550526771524E-57</v>
       </c>
     </row>
     <row r="31">
@@ -942,16 +942,16 @@
         </is>
       </c>
       <c r="B31">
-        <v>-1636804.423243376</v>
+        <v>-1636804.423242036</v>
       </c>
       <c r="C31">
-        <v>67518.27399015933</v>
+        <v>98554.53967552978</v>
       </c>
       <c r="D31">
-        <v>-24.24239137810213</v>
+        <v>-16.60810784192055</v>
       </c>
       <c r="E31">
-        <v>2.845328469988602E-121</v>
+        <v>6.527410063253973E-58</v>
       </c>
     </row>
     <row r="32">
@@ -961,16 +961,16 @@
         </is>
       </c>
       <c r="B32">
-        <v>-1780437.966922599</v>
+        <v>-1780437.966921625</v>
       </c>
       <c r="C32">
-        <v>67284.97531654786</v>
+        <v>98214.00011453732</v>
       </c>
       <c r="D32">
-        <v>-26.46115211525868</v>
+        <v>-18.12814837849264</v>
       </c>
       <c r="E32">
-        <v>2.345487169417403E-142</v>
+        <v>7.979524593871544E-68</v>
       </c>
     </row>
     <row r="33">
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B33">
-        <v>-1372273.522478129</v>
+        <v>-1372273.522476697</v>
       </c>
       <c r="C33">
-        <v>67284.97531654901</v>
+        <v>98214.00011451542</v>
       </c>
       <c r="D33">
-        <v>-20.39494725266865</v>
+        <v>-13.97228013192269</v>
       </c>
       <c r="E33">
-        <v>4.692384268455687E-88</v>
+        <v>2.753876576148712E-42</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +999,16 @@
         </is>
       </c>
       <c r="B34">
-        <v>-1685071.978798882</v>
+        <v>-1685071.978797523</v>
       </c>
       <c r="C34">
-        <v>67518.27399015697</v>
+        <v>98554.53967552642</v>
       </c>
       <c r="D34">
-        <v>-24.95727273840764</v>
+        <v>-17.09786260831138</v>
       </c>
       <c r="E34">
-        <v>6.410423594121091E-128</v>
+        <v>4.888294314256153E-61</v>
       </c>
     </row>
     <row r="35">
@@ -1018,16 +1018,16 @@
         </is>
       </c>
       <c r="B35">
-        <v>-1735957.423243229</v>
+        <v>-1735957.423242113</v>
       </c>
       <c r="C35">
-        <v>67518.27399015389</v>
+        <v>98554.53967553329</v>
       </c>
       <c r="D35">
-        <v>-25.7109271409453</v>
+        <v>-17.61418021896635</v>
       </c>
       <c r="E35">
-        <v>4.441054272502879E-135</v>
+        <v>2.104285998877565E-64</v>
       </c>
     </row>
     <row r="36">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="B36">
-        <v>-1137610.97879845</v>
+        <v>-1137610.978797737</v>
       </c>
       <c r="C36">
-        <v>67518.2739901423</v>
+        <v>98554.53967553997</v>
       </c>
       <c r="D36">
-        <v>-16.84893454125532</v>
+        <v>-11.54295867590641</v>
       </c>
       <c r="E36">
-        <v>1.338911256552045E-61</v>
+        <v>7.875994398819536E-30</v>
       </c>
     </row>
     <row r="37">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="B37">
-        <v>-1681909.534354567</v>
+        <v>-1681909.534353095</v>
       </c>
       <c r="C37">
-        <v>67518.2739901614</v>
+        <v>98554.539675527</v>
       </c>
       <c r="D37">
-        <v>-24.91043438994976</v>
+        <v>-17.06577434068972</v>
       </c>
       <c r="E37">
-        <v>1.764964972890871E-127</v>
+        <v>7.869872233629325E-61</v>
       </c>
     </row>
     <row r="38">
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="B38">
-        <v>-1347905.744700324</v>
+        <v>-1347905.744699024</v>
       </c>
       <c r="C38">
-        <v>67284.97531654849</v>
+        <v>98214.00011451991</v>
       </c>
       <c r="D38">
-        <v>-20.03278946538919</v>
+        <v>-13.72417112761249</v>
       </c>
       <c r="E38">
-        <v>3.662973052192166E-85</v>
+        <v>6.326654868388616E-41</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         </is>
       </c>
       <c r="B39">
-        <v>-1630127.312131809</v>
+        <v>-1630127.312130894</v>
       </c>
       <c r="C39">
-        <v>67518.27399014524</v>
+        <v>98554.53967552814</v>
       </c>
       <c r="D39">
-        <v>-24.14349798648195</v>
+        <v>-16.54035742541921</v>
       </c>
       <c r="E39">
-        <v>2.303817869225229E-120</v>
+        <v>1.74527495798975E-57</v>
       </c>
     </row>
     <row r="40">
@@ -1113,16 +1113,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>-1601231.0000006</v>
+        <v>-1601230.999999419</v>
       </c>
       <c r="C40">
-        <v>67269.39330331943</v>
+        <v>98191.25548481097</v>
       </c>
       <c r="D40">
-        <v>-23.80326209841982</v>
+        <v>-16.30726679370252</v>
       </c>
       <c r="E40">
-        <v>2.926216260311671E-117</v>
+        <v>5.02876064386592E-56</v>
       </c>
     </row>
     <row r="41">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B41">
-        <v>-1538836.111111526</v>
+        <v>-1538836.111110746</v>
       </c>
       <c r="C41">
-        <v>67269.39330331321</v>
+        <v>98191.25548482183</v>
       </c>
       <c r="D41">
-        <v>-22.87572453898932</v>
+        <v>-15.67182437491713</v>
       </c>
       <c r="E41">
-        <v>5.739960634530848E-109</v>
+        <v>3.994750237434883E-52</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         </is>
       </c>
       <c r="B42">
-        <v>-1783692.222222387</v>
+        <v>-1783692.222221728</v>
       </c>
       <c r="C42">
-        <v>67269.39330330709</v>
+        <v>98191.25548481624</v>
       </c>
       <c r="D42">
-        <v>-26.5156579334676</v>
+        <v>-18.16548951752174</v>
       </c>
       <c r="E42">
-        <v>6.851512448145649E-143</v>
+        <v>4.474446380112248E-68</v>
       </c>
     </row>
     <row r="43">
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="B43">
-        <v>-1716271.111111631</v>
+        <v>-1716271.11111082</v>
       </c>
       <c r="C43">
-        <v>67269.39330331613</v>
+        <v>98191.25548482446</v>
       </c>
       <c r="D43">
-        <v>-25.51340255698464</v>
+        <v>-17.47885901485465</v>
       </c>
       <c r="E43">
-        <v>3.45704820912634E-133</v>
+        <v>1.630212990642061E-63</v>
       </c>
     </row>
     <row r="44">
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B44">
-        <v>-1748061.666667323</v>
+        <v>-1748061.666666459</v>
       </c>
       <c r="C44">
-        <v>67269.39330332105</v>
+        <v>98191.25548482781</v>
       </c>
       <c r="D44">
-        <v>-25.98598829017568</v>
+        <v>-17.80262059014577</v>
       </c>
       <c r="E44">
-        <v>9.921346355137107E-138</v>
+        <v>1.193545784959807E-65</v>
       </c>
     </row>
     <row r="45">
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="B45">
-        <v>-889915.6666672735</v>
+        <v>-889915.666666397</v>
       </c>
       <c r="C45">
-        <v>67269.39330331734</v>
+        <v>98191.25548482909</v>
       </c>
       <c r="D45">
-        <v>-13.22913174873822</v>
+        <v>-9.063084714339887</v>
       </c>
       <c r="E45">
-        <v>3.888808250041218E-39</v>
+        <v>3.093505772599011E-19</v>
       </c>
     </row>
     <row r="46">
@@ -1227,16 +1227,16 @@
         </is>
       </c>
       <c r="B46">
-        <v>-1786569.555556283</v>
+        <v>-1786569.555555239</v>
       </c>
       <c r="C46">
-        <v>67269.39330332271</v>
+        <v>98191.25548482324</v>
       </c>
       <c r="D46">
-        <v>-26.5584312244427</v>
+        <v>-18.19479287370327</v>
       </c>
       <c r="E46">
-        <v>2.605210026285716E-143</v>
+        <v>2.840071941492822E-68</v>
       </c>
     </row>
     <row r="47">
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>-1441334.078033163</v>
+        <v>-1441334.078032594</v>
       </c>
       <c r="C47">
-        <v>67284.97531653088</v>
+        <v>98214.00011453242</v>
       </c>
       <c r="D47">
-        <v>-21.42133620845737</v>
+        <v>-14.67544419687397</v>
       </c>
       <c r="E47">
-        <v>1.772184765337357E-96</v>
+        <v>2.99698573395953E-46</v>
       </c>
     </row>
     <row r="48">
@@ -1265,16 +1265,16 @@
         </is>
       </c>
       <c r="B48">
-        <v>-1481171.444444926</v>
+        <v>-1481171.444444046</v>
       </c>
       <c r="C48">
-        <v>67269.39330331363</v>
+        <v>98191.25548481995</v>
       </c>
       <c r="D48">
-        <v>-22.01850457854456</v>
+        <v>-15.08455551495653</v>
       </c>
       <c r="E48">
-        <v>1.576293140656834E-101</v>
+        <v>1.260405503631486E-48</v>
       </c>
     </row>
     <row r="49">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>-1389763.089909955</v>
+        <v>-1389763.089908691</v>
       </c>
       <c r="C49">
-        <v>67518.27399015764</v>
+        <v>98554.53967552823</v>
       </c>
       <c r="D49">
-        <v>-20.58351032659018</v>
+        <v>-14.10146193655024</v>
       </c>
       <c r="E49">
-        <v>1.40875730942901E-89</v>
+        <v>5.289992285771963E-43</v>
       </c>
     </row>
     <row r="50">
@@ -1303,16 +1303,16 @@
         </is>
       </c>
       <c r="B50">
-        <v>-1628422.555556378</v>
+        <v>-1628422.555555139</v>
       </c>
       <c r="C50">
-        <v>67269.393303326</v>
+        <v>98191.25548481902</v>
       </c>
       <c r="D50">
-        <v>-24.20748092990254</v>
+        <v>-16.58419120434715</v>
       </c>
       <c r="E50">
-        <v>5.957888122612685E-121</v>
+        <v>9.239897112573134E-58</v>
       </c>
     </row>
     <row r="51">
@@ -1322,16 +1322,16 @@
         </is>
       </c>
       <c r="B51">
-        <v>-1739571.555556232</v>
+        <v>-1739571.55555525</v>
       </c>
       <c r="C51">
-        <v>67269.39330332157</v>
+        <v>98191.25548482378</v>
       </c>
       <c r="D51">
-        <v>-25.85977768094925</v>
+        <v>-17.71615554731465</v>
       </c>
       <c r="E51">
-        <v>1.642189074558232E-136</v>
+        <v>4.465278611960448E-65</v>
       </c>
     </row>
     <row r="52">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>-1765764.666667587</v>
+        <v>-1765764.666666462</v>
       </c>
       <c r="C52">
-        <v>67269.39330332796</v>
+        <v>98191.255484828</v>
       </c>
       <c r="D52">
-        <v>-26.24915403511199</v>
+        <v>-17.98291159378545</v>
       </c>
       <c r="E52">
-        <v>2.764418668507852E-140</v>
+        <v>7.511420774806063E-67</v>
       </c>
     </row>
     <row r="53">
@@ -1360,16 +1360,16 @@
         </is>
       </c>
       <c r="B53">
-        <v>-1546309.888889432</v>
+        <v>-1546309.888888764</v>
       </c>
       <c r="C53">
-        <v>67269.39330331646</v>
+        <v>98191.25548483292</v>
       </c>
       <c r="D53">
-        <v>-22.98682674180141</v>
+        <v>-15.74793886944051</v>
       </c>
       <c r="E53">
-        <v>6.00916827974468E-110</v>
+        <v>1.382025001496545E-52</v>
       </c>
     </row>
     <row r="54">
@@ -1379,16 +1379,16 @@
         </is>
       </c>
       <c r="B54">
-        <v>-1580804.000000654</v>
+        <v>-1580803.999999746</v>
       </c>
       <c r="C54">
-        <v>67269.39330332119</v>
+        <v>98191.25548482724</v>
       </c>
       <c r="D54">
-        <v>-23.49960245475571</v>
+        <v>-16.09923401217755</v>
       </c>
       <c r="E54">
-        <v>1.616549238852686E-114</v>
+        <v>9.797014143582781E-55</v>
       </c>
     </row>
     <row r="55">
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>-1279109.777778788</v>
+        <v>-1279109.777777492</v>
       </c>
       <c r="C55">
-        <v>67269.39330333285</v>
+        <v>98191.25548482653</v>
       </c>
       <c r="D55">
-        <v>-19.01473634541334</v>
+        <v>-13.0267178218854</v>
       </c>
       <c r="E55">
-        <v>2.93193139215812E-77</v>
+        <v>3.321391038539632E-37</v>
       </c>
     </row>
     <row r="56">
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="B56">
-        <v>1423277.444443969</v>
+        <v>1423277.444444779</v>
       </c>
       <c r="C56">
-        <v>67269.39330332579</v>
+        <v>98191.25548482158</v>
       </c>
       <c r="D56">
-        <v>21.15787544011642</v>
+        <v>14.49495107703139</v>
       </c>
       <c r="E56">
-        <v>2.766892710392915E-94</v>
+        <v>3.226284554400639E-45</v>
       </c>
     </row>
     <row r="57">
@@ -1436,16 +1436,16 @@
         </is>
       </c>
       <c r="B57">
-        <v>-1695501.888889417</v>
+        <v>-1695501.888888344</v>
       </c>
       <c r="C57">
-        <v>67269.39330331705</v>
+        <v>98191.25548481345</v>
       </c>
       <c r="D57">
-        <v>-25.20465557410954</v>
+        <v>-17.26734097162629</v>
       </c>
       <c r="E57">
-        <v>2.977232884516433E-130</v>
+        <v>3.910253836960286E-62</v>
       </c>
     </row>
     <row r="58">
@@ -1455,16 +1455,16 @@
         </is>
       </c>
       <c r="B58">
-        <v>-1733659.111111756</v>
+        <v>-1733659.111110589</v>
       </c>
       <c r="C58">
-        <v>67269.39330332023</v>
+        <v>98191.25548481467</v>
       </c>
       <c r="D58">
-        <v>-25.77188563741941</v>
+        <v>-17.65594199351795</v>
       </c>
       <c r="E58">
-        <v>1.152732056588384E-135</v>
+        <v>1.11614532579654E-64</v>
       </c>
     </row>
     <row r="59">
@@ -1474,16 +1474,16 @@
         </is>
       </c>
       <c r="B59">
-        <v>-1700941.111111658</v>
+        <v>-1700941.111110678</v>
       </c>
       <c r="C59">
-        <v>67269.39330331695</v>
+        <v>98191.25548481845</v>
       </c>
       <c r="D59">
-        <v>-25.28551288462099</v>
+        <v>-17.3227351326989</v>
       </c>
       <c r="E59">
-        <v>5.100736183072889E-131</v>
+        <v>1.705982955390245E-62</v>
       </c>
     </row>
     <row r="60">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="B60">
-        <v>-1794135.00000102</v>
+        <v>-1794134.999999676</v>
       </c>
       <c r="C60">
-        <v>67269.39330333026</v>
+        <v>98191.25548482322</v>
       </c>
       <c r="D60">
-        <v>-26.67089610740103</v>
+        <v>-18.27184092046754</v>
       </c>
       <c r="E60">
-        <v>2.03902280652612E-144</v>
+        <v>8.574729303893136E-69</v>
       </c>
     </row>
     <row r="61">
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="B61">
-        <v>-1403767.888889498</v>
+        <v>-1403767.888888415</v>
       </c>
       <c r="C61">
-        <v>67269.39330331904</v>
+        <v>98191.25548481577</v>
       </c>
       <c r="D61">
-        <v>-20.86785416006178</v>
+        <v>-14.29626173896405</v>
       </c>
       <c r="E61">
-        <v>6.786144459182029E-92</v>
+        <v>4.296139625430857E-44</v>
       </c>
     </row>
     <row r="62">
@@ -1531,16 +1531,16 @@
         </is>
       </c>
       <c r="B62">
-        <v>-1711852.777778338</v>
+        <v>-1711852.777777278</v>
       </c>
       <c r="C62">
-        <v>67269.39330331814</v>
+        <v>98191.25548481487</v>
       </c>
       <c r="D62">
-        <v>-25.44772137396249</v>
+        <v>-17.43386179680749</v>
       </c>
       <c r="E62">
-        <v>1.463047984071699E-132</v>
+        <v>3.212312095532299E-63</v>
       </c>
     </row>
     <row r="63">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="B63">
-        <v>-1778654.777778169</v>
+        <v>-1778654.777777349</v>
       </c>
       <c r="C63">
-        <v>67269.39330331344</v>
+        <v>98191.25548481892</v>
       </c>
       <c r="D63">
-        <v>-26.4407732913292</v>
+        <v>-18.1141871442141</v>
       </c>
       <c r="E63">
-        <v>3.71412163316794E-142</v>
+        <v>9.904170987230096E-68</v>
       </c>
     </row>
     <row r="64">
@@ -1569,16 +1569,16 @@
         </is>
       </c>
       <c r="B64">
-        <v>-499071.1111118646</v>
+        <v>-499071.1111107973</v>
       </c>
       <c r="C64">
-        <v>67269.39330332822</v>
+        <v>98191.25548483031</v>
       </c>
       <c r="D64">
-        <v>-7.418992302509328</v>
+        <v>-5.082643140130736</v>
       </c>
       <c r="E64">
-        <v>1.432570470936145E-13</v>
+        <v>4.09114116083254E-07</v>
       </c>
     </row>
     <row r="65">
@@ -1588,16 +1588,16 @@
         </is>
       </c>
       <c r="B65">
-        <v>-1455379.888889192</v>
+        <v>-1455379.888888763</v>
       </c>
       <c r="C65">
-        <v>67269.39330330897</v>
+        <v>98191.25548483306</v>
       </c>
       <c r="D65">
-        <v>-21.63509758928661</v>
+        <v>-14.82188899309436</v>
       </c>
       <c r="E65">
-        <v>2.838255868968478E-98</v>
+        <v>4.285286247945483E-47</v>
       </c>
     </row>
     <row r="66">
@@ -1607,16 +1607,16 @@
         </is>
       </c>
       <c r="B66">
-        <v>-1018470.444444887</v>
+        <v>-1018470.444444143</v>
       </c>
       <c r="C66">
-        <v>67269.39330330923</v>
+        <v>98191.25548482634</v>
       </c>
       <c r="D66">
-        <v>-15.14017585758105</v>
+        <v>-10.37231308852679</v>
       </c>
       <c r="E66">
-        <v>2.120460379487942E-50</v>
+        <v>1.497530122827578E-24</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
         </is>
       </c>
       <c r="B67">
-        <v>-1537710.555555979</v>
+        <v>-1537710.555555349</v>
       </c>
       <c r="C67">
-        <v>67269.3933033127</v>
+        <v>98191.25548482889</v>
       </c>
       <c r="D67">
-        <v>-22.85899247853413</v>
+        <v>-15.66036148496883</v>
       </c>
       <c r="E67">
-        <v>8.05743828986294E-109</v>
+        <v>4.685601179652437E-52</v>
       </c>
     </row>
     <row r="68">
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B68">
-        <v>-1568968.888889421</v>
+        <v>-1568968.888888516</v>
       </c>
       <c r="C68">
-        <v>67269.39330331728</v>
+        <v>98191.25548482061</v>
       </c>
       <c r="D68">
-        <v>-23.32366640821257</v>
+        <v>-15.9787027993655</v>
       </c>
       <c r="E68">
-        <v>6.099206137850022E-113</v>
+        <v>5.402593577179888E-54</v>
       </c>
     </row>
     <row r="69">
@@ -1664,16 +1664,16 @@
         </is>
       </c>
       <c r="B69">
-        <v>-1293573.53435397</v>
+        <v>-1293573.534353198</v>
       </c>
       <c r="C69">
-        <v>67518.27399014114</v>
+        <v>98554.53967553136</v>
       </c>
       <c r="D69">
-        <v>-19.15886556197889</v>
+        <v>-13.1254586405862</v>
       </c>
       <c r="E69">
-        <v>2.338257612710936E-78</v>
+        <v>1.009934749222E-37</v>
       </c>
     </row>
     <row r="70">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>-1087520.201020764</v>
+        <v>-1087520.2010199</v>
       </c>
       <c r="C70">
-        <v>67518.27399014545</v>
+        <v>98554.53967553556</v>
       </c>
       <c r="D70">
-        <v>-16.10704979187549</v>
+        <v>-11.03470428252487</v>
       </c>
       <c r="E70">
-        <v>1.310373314239487E-56</v>
+        <v>1.77057686547349E-27</v>
       </c>
     </row>
     <row r="71">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="B71">
-        <v>-1598428.000000827</v>
+        <v>-1598427.999999626</v>
       </c>
       <c r="C71">
-        <v>67269.39330332621</v>
+        <v>98191.25548482056</v>
       </c>
       <c r="D71">
-        <v>-23.76159381716605</v>
+        <v>-16.2787204635216</v>
       </c>
       <c r="E71">
-        <v>6.985027425279496E-117</v>
+        <v>7.571062668307951E-56</v>
       </c>
     </row>
     <row r="72">
@@ -1721,16 +1721,16 @@
         </is>
       </c>
       <c r="B72">
-        <v>-1663543.300255754</v>
+        <v>-1663543.300254592</v>
       </c>
       <c r="C72">
-        <v>67284.97531654294</v>
+        <v>98214.00011452234</v>
       </c>
       <c r="D72">
-        <v>-24.72384499555206</v>
+        <v>-16.93794467504449</v>
       </c>
       <c r="E72">
-        <v>9.839406485413992E-126</v>
+        <v>5.212342397771678E-60</v>
       </c>
     </row>
     <row r="73">
@@ -1740,16 +1740,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>-1715342.333334182</v>
+        <v>-1715342.333332855</v>
       </c>
       <c r="C73">
-        <v>67269.39330332639</v>
+        <v>98191.25548481609</v>
       </c>
       <c r="D73">
-        <v>-25.49959571657621</v>
+        <v>-17.46940015038415</v>
       </c>
       <c r="E73">
-        <v>4.682841381748295E-133</v>
+        <v>1.880233002071705E-63</v>
       </c>
     </row>
     <row r="74">
@@ -1759,16 +1759,16 @@
         </is>
       </c>
       <c r="B74">
-        <v>-1356017.633588812</v>
+        <v>-1356017.633587947</v>
       </c>
       <c r="C74">
-        <v>67284.97531653242</v>
+        <v>98214.0001145218</v>
       </c>
       <c r="D74">
-        <v>-20.15334964766835</v>
+        <v>-13.80676514556755</v>
       </c>
       <c r="E74">
-        <v>4.032950995068434E-86</v>
+        <v>2.239804097086653E-41</v>
       </c>
     </row>
     <row r="75">
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B75">
-        <v>-1135205.522478092</v>
+        <v>-1135205.522477014</v>
       </c>
       <c r="C75">
-        <v>67284.97531654724</v>
+        <v>98214.00011453331</v>
       </c>
       <c r="D75">
-        <v>-16.87160494802044</v>
+        <v>-11.55848984007557</v>
       </c>
       <c r="E75">
-        <v>9.358238775091353E-62</v>
+        <v>6.652927913611213E-30</v>
       </c>
     </row>
     <row r="76">
@@ -1797,16 +1797,16 @@
         </is>
       </c>
       <c r="B76">
-        <v>-1423902.300255786</v>
+        <v>-1423902.300254585</v>
       </c>
       <c r="C76">
-        <v>67284.97531654369</v>
+        <v>98214.00011452066</v>
       </c>
       <c r="D76">
-        <v>-21.16226235585292</v>
+        <v>-14.49795648883325</v>
       </c>
       <c r="E76">
-        <v>2.544747822087462E-94</v>
+        <v>3.101707906645616E-45</v>
       </c>
     </row>
     <row r="77">
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>-1584335.078033563</v>
+        <v>-1584335.078032489</v>
       </c>
       <c r="C77">
-        <v>67284.9753165437</v>
+        <v>98214.00011452712</v>
       </c>
       <c r="D77">
-        <v>-23.54663980450349</v>
+        <v>-16.13145861267232</v>
       </c>
       <c r="E77">
-        <v>6.102946169464902E-115</v>
+        <v>6.196393796022203E-55</v>
       </c>
     </row>
     <row r="78">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>-1575005.855811572</v>
+        <v>-1575005.855810236</v>
       </c>
       <c r="C78">
-        <v>67284.97531655089</v>
+        <v>98214.00011452606</v>
       </c>
       <c r="D78">
-        <v>-23.40798742069463</v>
+        <v>-16.03646989200768</v>
       </c>
       <c r="E78">
-        <v>1.073327645424701E-113</v>
+        <v>2.386392087471131E-54</v>
       </c>
     </row>
     <row r="79">
@@ -1854,16 +1854,16 @@
         </is>
       </c>
       <c r="B79">
-        <v>-1151869.966922408</v>
+        <v>-1151869.966921425</v>
       </c>
       <c r="C79">
-        <v>67284.97531654342</v>
+        <v>98214.00011452963</v>
       </c>
       <c r="D79">
-        <v>-17.11927457063652</v>
+        <v>-11.72816467691167</v>
       </c>
       <c r="E79">
-        <v>1.819932512745648E-63</v>
+        <v>1.039538039557495E-30</v>
       </c>
     </row>
     <row r="80">
@@ -1873,16 +1873,16 @@
         </is>
       </c>
       <c r="B80">
-        <v>-1453019.522478259</v>
+        <v>-1453019.522476747</v>
       </c>
       <c r="C80">
-        <v>67284.97531655214</v>
+        <v>98214.00011451742</v>
       </c>
       <c r="D80">
-        <v>-21.59500714152474</v>
+        <v>-14.79442361356352</v>
       </c>
       <c r="E80">
-        <v>6.178112146273608E-98</v>
+        <v>6.178781440583109E-47</v>
       </c>
     </row>
     <row r="81">
@@ -1892,16 +1892,16 @@
         </is>
       </c>
       <c r="B81">
-        <v>-1294812.855811363</v>
+        <v>-1294812.855810307</v>
       </c>
       <c r="C81">
-        <v>67284.9753165455</v>
+        <v>98214.00011452931</v>
       </c>
       <c r="D81">
-        <v>-19.24371451010946</v>
+        <v>-13.183587414222</v>
       </c>
       <c r="E81">
-        <v>5.237672772263217E-79</v>
+        <v>4.9936780012854E-38</v>
       </c>
     </row>
     <row r="82">
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="B82">
-        <v>-1700500.855811439</v>
+        <v>-1700500.855810104</v>
       </c>
       <c r="C82">
-        <v>67284.97531654684</v>
+        <v>98214.00011451976</v>
       </c>
       <c r="D82">
-        <v>-25.27311406166555</v>
+        <v>-17.3142408803967</v>
       </c>
       <c r="E82">
-        <v>6.687064775415152E-131</v>
+        <v>1.937612712845984E-62</v>
       </c>
     </row>
     <row r="83">
@@ -1930,16 +1930,16 @@
         </is>
       </c>
       <c r="B83">
-        <v>-1519216.777778466</v>
+        <v>-1519216.777777485</v>
       </c>
       <c r="C83">
-        <v>67269.39330332204</v>
+        <v>98191.25548482481</v>
       </c>
       <c r="D83">
-        <v>-22.5840713462097</v>
+        <v>-15.47201703732442</v>
       </c>
       <c r="E83">
-        <v>2.062554999801632E-106</v>
+        <v>6.360280689317878E-51</v>
       </c>
     </row>
     <row r="84">
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B84">
-        <v>-1643960.756576374</v>
+        <v>-1643960.756575304</v>
       </c>
       <c r="C84">
-        <v>67518.27399014909</v>
+        <v>98554.53967552706</v>
       </c>
       <c r="D84">
-        <v>-24.34838243667526</v>
+        <v>-16.68072076626553</v>
       </c>
       <c r="E84">
-        <v>3.003122060912484E-122</v>
+        <v>2.267433407153042E-58</v>
       </c>
     </row>
     <row r="85">
@@ -1968,16 +1968,16 @@
         </is>
       </c>
       <c r="B85">
-        <v>-1438027.201020685</v>
+        <v>-1438027.201019795</v>
       </c>
       <c r="C85">
-        <v>67518.27399014364</v>
+        <v>98554.53967552862</v>
       </c>
       <c r="D85">
-        <v>-21.29834067189882</v>
+        <v>-14.5911817533136</v>
       </c>
       <c r="E85">
-        <v>1.884537194423937E-95</v>
+        <v>9.114438301641338E-46</v>
       </c>
     </row>
     <row r="86">
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="B86">
-        <v>-1656847.333334336</v>
+        <v>-1656847.33333307</v>
       </c>
       <c r="C86">
-        <v>67269.39330333083</v>
+        <v>98191.25548482552</v>
       </c>
       <c r="D86">
-        <v>-24.6300323516118</v>
+        <v>-16.87367500448265</v>
       </c>
       <c r="E86">
-        <v>7.367169752236906E-125</v>
+        <v>1.34321456141837E-59</v>
       </c>
     </row>
     <row r="87">
@@ -2006,16 +2006,16 @@
         </is>
       </c>
       <c r="B87">
-        <v>-1748508.978798595</v>
+        <v>-1748508.978797573</v>
       </c>
       <c r="C87">
-        <v>67518.27399014853</v>
+        <v>98554.53967552894</v>
       </c>
       <c r="D87">
-        <v>-25.89682578458265</v>
+        <v>-17.74153666136728</v>
       </c>
       <c r="E87">
-        <v>7.212335653354139E-137</v>
+        <v>3.032849041320275E-65</v>
       </c>
     </row>
     <row r="88">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="B88">
-        <v>-1745029.978798495</v>
+        <v>-1745029.978797612</v>
       </c>
       <c r="C88">
-        <v>67518.2739901461</v>
+        <v>98554.53967553099</v>
       </c>
       <c r="D88">
-        <v>-25.84529899347207</v>
+        <v>-17.70623641024286</v>
       </c>
       <c r="E88">
-        <v>2.264531425510565E-136</v>
+        <v>5.193463988512186E-65</v>
       </c>
     </row>
     <row r="89">
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="B89">
-        <v>-1657259.978798329</v>
+        <v>-1657259.978797677</v>
       </c>
       <c r="C89">
-        <v>67518.27399014031</v>
+        <v>98554.53967553373</v>
       </c>
       <c r="D89">
-        <v>-24.54535462562829</v>
+        <v>-16.81566353263678</v>
       </c>
       <c r="E89">
-        <v>4.5123140454839E-124</v>
+        <v>3.149528379667931E-59</v>
       </c>
     </row>
     <row r="90">
@@ -2063,16 +2063,16 @@
         </is>
       </c>
       <c r="B90">
-        <v>-1712059.86768782</v>
+        <v>-1712059.867686399</v>
       </c>
       <c r="C90">
-        <v>67518.27399015862</v>
+        <v>98554.53967552625</v>
       </c>
       <c r="D90">
-        <v>-25.35698510209796</v>
+        <v>-17.37169970376869</v>
       </c>
       <c r="E90">
-        <v>1.068829801096545E-131</v>
+        <v>8.18212737512203E-63</v>
       </c>
     </row>
     <row r="91">
@@ -2082,16 +2082,16 @@
         </is>
       </c>
       <c r="B91">
-        <v>-1476324.201020924</v>
+        <v>-1476324.201019871</v>
       </c>
       <c r="C91">
-        <v>67518.27399015272</v>
+        <v>98554.53967553195</v>
       </c>
       <c r="D91">
-        <v>-21.86555007665391</v>
+        <v>-14.97976862233162</v>
       </c>
       <c r="E91">
-        <v>3.174724320439271E-100</v>
+        <v>5.175813988948225E-48</v>
       </c>
     </row>
     <row r="92">
@@ -2101,16 +2101,16 @@
         </is>
       </c>
       <c r="B92">
-        <v>-1390397.978798472</v>
+        <v>-1390397.978797485</v>
       </c>
       <c r="C92">
-        <v>67518.27399014363</v>
+        <v>98554.53967552414</v>
       </c>
       <c r="D92">
-        <v>-20.59291354221293</v>
+        <v>-14.10790394207268</v>
       </c>
       <c r="E92">
-        <v>1.181991617799272E-89</v>
+        <v>4.87065383683505E-43</v>
       </c>
     </row>
     <row r="93">
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="B93">
-        <v>-1514123.423243139</v>
+        <v>-1514123.423242043</v>
       </c>
       <c r="C93">
-        <v>67518.27399015211</v>
+        <v>98554.53967552961</v>
       </c>
       <c r="D93">
-        <v>-22.42538699173474</v>
+        <v>-15.36330470648009</v>
       </c>
       <c r="E93">
-        <v>4.945398495082867E-105</v>
+        <v>2.834625131405913E-50</v>
       </c>
     </row>
     <row r="94">
@@ -2139,16 +2139,16 @@
         </is>
       </c>
       <c r="B94">
-        <v>-1473016.201021221</v>
+        <v>-1473016.201019907</v>
       </c>
       <c r="C94">
-        <v>67518.27399016227</v>
+        <v>98554.53967553355</v>
       </c>
       <c r="D94">
-        <v>-21.81655593322552</v>
+        <v>-14.94620345109873</v>
       </c>
       <c r="E94">
-        <v>8.27787552109017E-100</v>
+        <v>8.12419352632103E-48</v>
       </c>
     </row>
     <row r="95">
@@ -2158,16 +2158,16 @@
         </is>
       </c>
       <c r="B95">
-        <v>-1349059.211315549</v>
+        <v>-1349059.211314563</v>
       </c>
       <c r="C95">
-        <v>69530.30023698644</v>
+        <v>101491.4382194886</v>
       </c>
       <c r="D95">
-        <v>-19.40246492129946</v>
+        <v>-13.29234499955597</v>
       </c>
       <c r="E95">
-        <v>3.141257250376819E-80</v>
+        <v>1.327904426814107E-38</v>
       </c>
     </row>
     <row r="96">
@@ -2177,16 +2177,16 @@
         </is>
       </c>
       <c r="B96">
-        <v>-1543761.711315472</v>
+        <v>-1543761.711314483</v>
       </c>
       <c r="C96">
-        <v>69530.30023698411</v>
+        <v>101491.4382194846</v>
       </c>
       <c r="D96">
-        <v>-22.20271890174184</v>
+        <v>-15.21075805405334</v>
       </c>
       <c r="E96">
-        <v>4.14615428209538E-103</v>
+        <v>2.276493278989311E-49</v>
       </c>
     </row>
     <row r="97">
@@ -2196,16 +2196,16 @@
         </is>
       </c>
       <c r="B97">
-        <v>-1403576.300255702</v>
+        <v>-1403576.300254779</v>
       </c>
       <c r="C97">
-        <v>67284.97531654069</v>
+        <v>98214.00011453044</v>
       </c>
       <c r="D97">
-        <v>-20.86017411246133</v>
+        <v>-14.29100025065697</v>
       </c>
       <c r="E97">
-        <v>7.844132855250456E-92</v>
+        <v>4.599234909333893E-44</v>
       </c>
     </row>
     <row r="98">
@@ -2215,16 +2215,16 @@
         </is>
       </c>
       <c r="B98">
-        <v>-1474195.645465064</v>
+        <v>-1474195.645464356</v>
       </c>
       <c r="C98">
-        <v>67518.27399014251</v>
+        <v>98554.53967553402</v>
       </c>
       <c r="D98">
-        <v>-21.8340244550726</v>
+        <v>-14.95817087997949</v>
       </c>
       <c r="E98">
-        <v>5.883083053616507E-100</v>
+        <v>6.918433913114868E-48</v>
       </c>
     </row>
     <row r="99">
@@ -2234,16 +2234,16 @@
         </is>
       </c>
       <c r="B99">
-        <v>-1679061.867687433</v>
+        <v>-1679061.867686397</v>
       </c>
       <c r="C99">
-        <v>67518.27399014722</v>
+        <v>98554.53967552645</v>
       </c>
       <c r="D99">
-        <v>-24.86825815382151</v>
+        <v>-17.03688001805309</v>
       </c>
       <c r="E99">
-        <v>4.388226955152194E-127</v>
+        <v>1.207679600490329E-60</v>
       </c>
     </row>
     <row r="100">
@@ -2253,16 +2253,16 @@
         </is>
       </c>
       <c r="B100">
-        <v>-1732730.53435426</v>
+        <v>-1732730.534353233</v>
       </c>
       <c r="C100">
-        <v>67518.27399015181</v>
+        <v>98554.53967553383</v>
       </c>
       <c r="D100">
-        <v>-25.66313431837721</v>
+        <v>-17.58143805508924</v>
       </c>
       <c r="E100">
-        <v>1.276557419522912E-134</v>
+        <v>3.45690763476202E-64</v>
       </c>
     </row>
     <row r="101">
@@ -2272,16 +2272,16 @@
         </is>
       </c>
       <c r="B101">
-        <v>-1703560.111111737</v>
+        <v>-1703560.111110803</v>
       </c>
       <c r="C101">
-        <v>67269.39330331993</v>
+        <v>98191.25548482359</v>
       </c>
       <c r="D101">
-        <v>-25.32444589518338</v>
+        <v>-17.34940756892659</v>
       </c>
       <c r="E101">
-        <v>2.178126992684983E-131</v>
+        <v>1.143476235199543E-62</v>
       </c>
     </row>
     <row r="102">
@@ -2291,16 +2291,16 @@
         </is>
       </c>
       <c r="B102">
-        <v>-1457622.300255777</v>
+        <v>-1457622.300254697</v>
       </c>
       <c r="C102">
-        <v>67284.97531654294</v>
+        <v>98214.00011452659</v>
       </c>
       <c r="D102">
-        <v>-21.66341435659858</v>
+        <v>-14.8412883963078</v>
       </c>
       <c r="E102">
-        <v>1.637404248016405E-98</v>
+        <v>3.30818739441936E-47</v>
       </c>
     </row>
     <row r="103">
@@ -2310,16 +2310,16 @@
         </is>
       </c>
       <c r="B103">
-        <v>-1772872.522477646</v>
+        <v>-1772872.522476798</v>
       </c>
       <c r="C103">
-        <v>67284.97531653322</v>
+        <v>98214.00011452135</v>
       </c>
       <c r="D103">
-        <v>-26.34871327718265</v>
+        <v>-18.05111817469567</v>
       </c>
       <c r="E103">
-        <v>2.953225312662162E-141</v>
+        <v>2.624885846571492E-67</v>
       </c>
     </row>
     <row r="104">
@@ -2329,16 +2329,16 @@
         </is>
       </c>
       <c r="B104">
-        <v>-1360033.855811144</v>
+        <v>-1360033.855810233</v>
       </c>
       <c r="C104">
-        <v>67284.97531653677</v>
+        <v>98214.00011452523</v>
       </c>
       <c r="D104">
-        <v>-20.21303938082719</v>
+        <v>-13.84765770892466</v>
       </c>
       <c r="E104">
-        <v>1.347358991762733E-86</v>
+        <v>1.336993031750484E-41</v>
       </c>
     </row>
     <row r="105">
@@ -2348,16 +2348,16 @@
         </is>
       </c>
       <c r="B105">
-        <v>-1711103.300255877</v>
+        <v>-1711103.300254708</v>
       </c>
       <c r="C105">
-        <v>67284.97531654636</v>
+        <v>98214.00011452686</v>
       </c>
       <c r="D105">
-        <v>-25.43068927655668</v>
+        <v>-17.42219335593092</v>
       </c>
       <c r="E105">
-        <v>2.125903094618194E-132</v>
+        <v>3.829272290424634E-63</v>
       </c>
     </row>
     <row r="106">
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B106">
-        <v>-991777.6335889754</v>
+        <v>-991777.6335880003</v>
       </c>
       <c r="C106">
-        <v>67284.97531653932</v>
+        <v>98214.00011452365</v>
       </c>
       <c r="D106">
-        <v>-14.73995686144194</v>
+        <v>-10.0981289065869</v>
       </c>
       <c r="E106">
-        <v>6.269718309775873E-48</v>
+        <v>2.191384497848844E-23</v>
       </c>
     </row>
     <row r="107">
@@ -2386,16 +2386,16 @@
         </is>
       </c>
       <c r="B107">
-        <v>-1385687.522478192</v>
+        <v>-1385687.522476997</v>
       </c>
       <c r="C107">
-        <v>67284.97531655095</v>
+        <v>98214.00011452996</v>
       </c>
       <c r="D107">
-        <v>-20.5943082532028</v>
+        <v>-14.10885943817694</v>
       </c>
       <c r="E107">
-        <v>1.151613072667986E-89</v>
+        <v>4.811341047121254E-43</v>
       </c>
     </row>
     <row r="108">
@@ -2405,16 +2405,16 @@
         </is>
       </c>
       <c r="B108">
-        <v>-1724915.978798852</v>
+        <v>-1724915.978797612</v>
       </c>
       <c r="C108">
-        <v>67518.27399015611</v>
+        <v>98554.53967553086</v>
       </c>
       <c r="D108">
-        <v>-25.54739445872591</v>
+        <v>-17.50214636968037</v>
       </c>
       <c r="E108">
-        <v>1.63678239293575E-133</v>
+        <v>1.147046804933807E-63</v>
       </c>
     </row>
     <row r="109">
@@ -2424,16 +2424,16 @@
         </is>
       </c>
       <c r="B109">
-        <v>-1762000.078033809</v>
+        <v>-1762000.078032289</v>
       </c>
       <c r="C109">
-        <v>67284.97531655057</v>
+        <v>98214.00011451857</v>
       </c>
       <c r="D109">
-        <v>-26.18712527936971</v>
+        <v>-17.9404166002584</v>
       </c>
       <c r="E109">
-        <v>1.110329756771503E-139</v>
+        <v>1.444089114977795E-66</v>
       </c>
     </row>
     <row r="110">
@@ -2443,16 +2443,16 @@
         </is>
       </c>
       <c r="B110">
-        <v>-1511531.201020814</v>
+        <v>-1511531.201019824</v>
       </c>
       <c r="C110">
-        <v>67518.27399014872</v>
+        <v>98554.53967553024</v>
       </c>
       <c r="D110">
-        <v>-22.38699409350058</v>
+        <v>-15.33700229331107</v>
       </c>
       <c r="E110">
-        <v>1.063913477870122E-104</v>
+        <v>4.064379353061859E-50</v>
       </c>
     </row>
     <row r="111">
@@ -2462,16 +2462,16 @@
         </is>
       </c>
       <c r="B111">
-        <v>-1605835.855811481</v>
+        <v>-1605835.855810296</v>
       </c>
       <c r="C111">
-        <v>67284.97531654857</v>
+        <v>98214.00011452833</v>
       </c>
       <c r="D111">
-        <v>-23.86618778199254</v>
+        <v>-16.35037625936949</v>
       </c>
       <c r="E111">
-        <v>7.847587740917718E-118</v>
+        <v>2.70814957324058E-56</v>
       </c>
     </row>
     <row r="112">
@@ -2481,16 +2481,16 @@
         </is>
       </c>
       <c r="B112">
-        <v>-1781697.522477976</v>
+        <v>-1781697.522476935</v>
       </c>
       <c r="C112">
-        <v>67284.97531654275</v>
+        <v>98214.00011452693</v>
       </c>
       <c r="D112">
-        <v>-26.4798718301666</v>
+        <v>-18.14097298144159</v>
       </c>
       <c r="E112">
-        <v>1.537330110902125E-142</v>
+        <v>6.542314810291181E-68</v>
       </c>
     </row>
     <row r="113">
@@ -2500,16 +2500,16 @@
         </is>
       </c>
       <c r="B113">
-        <v>-418312.5555562479</v>
+        <v>-418312.5555551935</v>
       </c>
       <c r="C113">
-        <v>67269.3933033276</v>
+        <v>98191.25548482469</v>
       </c>
       <c r="D113">
-        <v>-6.218467790693682</v>
+        <v>-4.260181352094465</v>
       </c>
       <c r="E113">
-        <v>5.533516948191305E-10</v>
+        <v>2.14338627118688E-05</v>
       </c>
     </row>
     <row r="114">
@@ -2519,16 +2519,16 @@
         </is>
       </c>
       <c r="B114">
-        <v>-1689145.777778116</v>
+        <v>-1689145.777777542</v>
       </c>
       <c r="C114">
-        <v>67269.39330331124</v>
+        <v>98191.25548482683</v>
       </c>
       <c r="D114">
-        <v>-25.11016815867388</v>
+        <v>-17.20260902498146</v>
       </c>
       <c r="E114">
-        <v>2.327537333964804E-129</v>
+        <v>1.028267088489888E-61</v>
       </c>
     </row>
     <row r="115">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="B115">
-        <v>-1775978.300255511</v>
+        <v>-1775978.30025465</v>
       </c>
       <c r="C115">
-        <v>67284.97531653593</v>
+        <v>98214.00011452431</v>
       </c>
       <c r="D115">
-        <v>-26.39487184026725</v>
+        <v>-18.08274073129835</v>
       </c>
       <c r="E115">
-        <v>1.044946912080986E-141</v>
+        <v>1.610653046641199E-67</v>
       </c>
     </row>
     <row r="116">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="B116">
-        <v>-789954.9669224181</v>
+        <v>-789954.9669213817</v>
       </c>
       <c r="C116">
-        <v>67284.97531654376</v>
+        <v>98214.00011452632</v>
       </c>
       <c r="D116">
-        <v>-11.74043630403454</v>
+        <v>-8.043201234042227</v>
       </c>
       <c r="E116">
-        <v>2.558841543812455E-31</v>
+        <v>1.532242830020904E-15</v>
       </c>
     </row>
     <row r="117">
@@ -2576,16 +2576,16 @@
         </is>
       </c>
       <c r="B117">
-        <v>-1689773.978798869</v>
+        <v>-1689773.97879766</v>
       </c>
       <c r="C117">
-        <v>67518.27399015687</v>
+        <v>98554.53967553291</v>
       </c>
       <c r="D117">
-        <v>-25.02691314421354</v>
+        <v>-17.1455722319929</v>
       </c>
       <c r="E117">
-        <v>1.418392357128881E-128</v>
+        <v>2.405174465570184E-61</v>
       </c>
     </row>
     <row r="118">
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B118">
-        <v>-1160645.633589163</v>
+        <v>-1160645.63358798</v>
       </c>
       <c r="C118">
-        <v>67284.97531654668</v>
+        <v>98214.00011452289</v>
       </c>
       <c r="D118">
-        <v>-17.24969992377686</v>
+        <v>-11.81751717916595</v>
       </c>
       <c r="E118">
-        <v>2.240583922517356E-64</v>
+        <v>3.875155534498144E-31</v>
       </c>
     </row>
     <row r="119">
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B119">
-        <v>-1160749.000000818</v>
+        <v>-1160748.999999614</v>
       </c>
       <c r="C119">
-        <v>67269.39330332784</v>
+        <v>98191.25548481982</v>
       </c>
       <c r="D119">
-        <v>-17.25523217916988</v>
+        <v>-11.82130724643869</v>
       </c>
       <c r="E119">
-        <v>2.049481871252456E-64</v>
+        <v>3.715782262528741E-31</v>
       </c>
     </row>
     <row r="120">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B120">
-        <v>-280841.7777784279</v>
+        <v>-280841.7777774168</v>
       </c>
       <c r="C120">
-        <v>67269.39330331648</v>
+        <v>98191.25548482436</v>
       </c>
       <c r="D120">
-        <v>-4.174881978080542</v>
+        <v>-2.86015059478307</v>
       </c>
       <c r="E120">
-        <v>3.044679663696532E-05</v>
+        <v>0.004281075361241651</v>
       </c>
     </row>
     <row r="121">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="B121">
-        <v>-1525414.666667315</v>
+        <v>-1525414.666666287</v>
       </c>
       <c r="C121">
-        <v>67269.39330331986</v>
+        <v>98191.25548482075</v>
       </c>
       <c r="D121">
-        <v>-22.67620669312671</v>
+        <v>-15.53513761622183</v>
       </c>
       <c r="E121">
-        <v>3.234658748813864E-107</v>
+        <v>2.660930951637491E-51</v>
       </c>
     </row>
     <row r="122">
@@ -2671,16 +2671,16 @@
         </is>
       </c>
       <c r="B122">
-        <v>-100878.3002557179</v>
+        <v>-100878.3002547086</v>
       </c>
       <c r="C122">
-        <v>67284.9753165469</v>
+        <v>98214.00011452987</v>
       </c>
       <c r="D122">
-        <v>-1.499269335852898</v>
+        <v>-1.027127498493818</v>
       </c>
       <c r="E122">
-        <v>0.1338824536183316</v>
+        <v>0.3044923536786193</v>
       </c>
     </row>
     <row r="123">
@@ -2690,16 +2690,16 @@
         </is>
       </c>
       <c r="B123">
-        <v>-1494961.300255741</v>
+        <v>-1494961.300254615</v>
       </c>
       <c r="C123">
-        <v>67284.97531654258</v>
+        <v>98214.00011452203</v>
       </c>
       <c r="D123">
-        <v>-22.21835251068588</v>
+        <v>-15.22146841093349</v>
       </c>
       <c r="E123">
-        <v>3.041486544898397E-103</v>
+        <v>1.967747976645466E-49</v>
       </c>
     </row>
     <row r="124">
@@ -2709,16 +2709,16 @@
         </is>
       </c>
       <c r="B124">
-        <v>-1575899.855811456</v>
+        <v>-1575899.855810287</v>
       </c>
       <c r="C124">
-        <v>67284.97531654773</v>
+        <v>98214.00011452757</v>
       </c>
       <c r="D124">
-        <v>-23.42127419082054</v>
+        <v>-16.04557246393209</v>
       </c>
       <c r="E124">
-        <v>8.159221213046424E-114</v>
+        <v>2.097670495579596E-54</v>
       </c>
     </row>
     <row r="125">
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B125">
-        <v>-1599863.966922334</v>
+        <v>-1599863.966921273</v>
       </c>
       <c r="C125">
-        <v>67284.97531654027</v>
+        <v>98214.00011452219</v>
       </c>
       <c r="D125">
-        <v>-23.77743261992472</v>
+        <v>-16.28957139568449</v>
       </c>
       <c r="E125">
-        <v>5.018744527547767E-117</v>
+        <v>6.480955595442211E-56</v>
       </c>
     </row>
     <row r="126">
@@ -2747,16 +2747,16 @@
         </is>
       </c>
       <c r="B126">
-        <v>-1006389.645465426</v>
+        <v>-1006389.645464245</v>
       </c>
       <c r="C126">
-        <v>67518.27399015799</v>
+        <v>98554.53967552824</v>
       </c>
       <c r="D126">
-        <v>-14.9054409419904</v>
+        <v>-10.21149963033249</v>
       </c>
       <c r="E126">
-        <v>6.063400077714297E-49</v>
+        <v>7.280920724723717E-24</v>
       </c>
     </row>
     <row r="127">
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B127">
-        <v>-666759.9669223326</v>
+        <v>-666759.9669213393</v>
       </c>
       <c r="C127">
-        <v>67284.97531653836</v>
+        <v>98214.00011452295</v>
       </c>
       <c r="D127">
-        <v>-9.9094926287124</v>
+        <v>-6.788848495569474</v>
       </c>
       <c r="E127">
-        <v>6.920547515507281E-23</v>
+        <v>1.509798648838023E-11</v>
       </c>
     </row>
     <row r="128">
@@ -2785,16 +2785,16 @@
         </is>
       </c>
       <c r="B128">
-        <v>-1600767.300255724</v>
+        <v>-1600767.300254578</v>
       </c>
       <c r="C128">
-        <v>67284.975316542</v>
+        <v>98214.00011452065</v>
       </c>
       <c r="D128">
-        <v>-23.79085810353528</v>
+        <v>-16.29876899818796</v>
       </c>
       <c r="E128">
-        <v>3.791768250525899E-117</v>
+        <v>5.680446901369448E-56</v>
       </c>
     </row>
     <row r="129">
@@ -2804,16 +2804,16 @@
         </is>
       </c>
       <c r="B129">
-        <v>-631348.6335890739</v>
+        <v>-631348.6335880365</v>
       </c>
       <c r="C129">
-        <v>67284.97531654652</v>
+        <v>98214.00011452679</v>
       </c>
       <c r="D129">
-        <v>-9.38320376308163</v>
+        <v>-6.42829568953331</v>
       </c>
       <c r="E129">
-        <v>1.041399552274422E-20</v>
+        <v>1.630950348394259E-10</v>
       </c>
     </row>
     <row r="130">
@@ -2823,16 +2823,16 @@
         </is>
       </c>
       <c r="B130">
-        <v>-1604418.744700075</v>
+        <v>-1604418.744699017</v>
       </c>
       <c r="C130">
-        <v>67284.97531653901</v>
+        <v>98214.00011452055</v>
       </c>
       <c r="D130">
-        <v>-23.84512645136841</v>
+        <v>-16.33594744973441</v>
       </c>
       <c r="E130">
-        <v>1.219459598228585E-117</v>
+        <v>3.331926119915691E-56</v>
       </c>
     </row>
     <row r="131">
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="B131">
-        <v>-1609036.333333911</v>
+        <v>-1609036.333332973</v>
       </c>
       <c r="C131">
-        <v>67269.3933033182</v>
+        <v>98191.25548482132</v>
       </c>
       <c r="D131">
-        <v>-23.91929307402483</v>
+        <v>-16.3867579183943</v>
       </c>
       <c r="E131">
-        <v>2.579224755657164E-118</v>
+        <v>1.604802581580981E-56</v>
       </c>
     </row>
     <row r="132">
@@ -2861,16 +2861,16 @@
         </is>
       </c>
       <c r="B132">
-        <v>-1729352.744700311</v>
+        <v>-1729352.744699114</v>
       </c>
       <c r="C132">
-        <v>67284.97531654619</v>
+        <v>98214.00011452529</v>
       </c>
       <c r="D132">
-        <v>-25.70191542115409</v>
+        <v>-17.60800642151376</v>
       </c>
       <c r="E132">
-        <v>5.419968876782336E-135</v>
+        <v>2.310875186353233E-64</v>
       </c>
     </row>
     <row r="133">
@@ -2880,16 +2880,16 @@
         </is>
       </c>
       <c r="B133">
-        <v>-1347482.666667312</v>
+        <v>-1347482.666666278</v>
       </c>
       <c r="C133">
-        <v>67269.39330332066</v>
+        <v>98191.25548481944</v>
       </c>
       <c r="D133">
-        <v>-20.03114047114196</v>
+        <v>-13.7230414257673</v>
       </c>
       <c r="E133">
-        <v>3.774917942273446E-85</v>
+        <v>6.416928230437101E-41</v>
       </c>
     </row>
     <row r="134">
@@ -2899,16 +2899,16 @@
         </is>
       </c>
       <c r="B134">
-        <v>-1613262.855811277</v>
+        <v>-1613262.855810282</v>
       </c>
       <c r="C134">
-        <v>67284.97531654194</v>
+        <v>98214.00011452766</v>
       </c>
       <c r="D134">
-        <v>-23.9765690367231</v>
+        <v>-16.42599684290479</v>
       </c>
       <c r="E134">
-        <v>7.751594057687402E-119</v>
+        <v>9.118064493119627E-57</v>
       </c>
     </row>
     <row r="135">
@@ -2918,16 +2918,16 @@
         </is>
       </c>
       <c r="B135">
-        <v>-1469651.201020979</v>
+        <v>-1469651.201019832</v>
       </c>
       <c r="C135">
-        <v>67518.27399015421</v>
+        <v>98554.53967552989</v>
       </c>
       <c r="D135">
-        <v>-21.7667175739014</v>
+        <v>-14.91205991990171</v>
       </c>
       <c r="E135">
-        <v>2.190546914708499E-99</v>
+        <v>1.284116728003046E-47</v>
       </c>
     </row>
     <row r="136">
@@ -2937,16 +2937,16 @@
         </is>
       </c>
       <c r="B136">
-        <v>-1308283.744700049</v>
+        <v>-1308283.744699205</v>
       </c>
       <c r="C136">
-        <v>67284.97531653717</v>
+        <v>98214.0001145296</v>
       </c>
       <c r="D136">
-        <v>-19.44392100235342</v>
+        <v>-13.32074595448292</v>
       </c>
       <c r="E136">
-        <v>1.501826998080426E-80</v>
+        <v>9.382286812540162E-39</v>
       </c>
     </row>
     <row r="137">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B137">
-        <v>-122074.7447001306</v>
+        <v>-122074.7446991528</v>
       </c>
       <c r="C137">
-        <v>67284.97531654531</v>
+        <v>98214.00011452968</v>
       </c>
       <c r="D137">
-        <v>-1.814294262958769</v>
+        <v>-1.242946469513496</v>
       </c>
       <c r="E137">
-        <v>0.06970709454601909</v>
+        <v>0.2140423061274674</v>
       </c>
     </row>
     <row r="138">
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="B138">
-        <v>-683200.7447001615</v>
+        <v>-683200.7446991203</v>
       </c>
       <c r="C138">
-        <v>67284.97531654473</v>
+        <v>98214.00011452404</v>
       </c>
       <c r="D138">
-        <v>-10.15383808177112</v>
+        <v>-6.956245992449782</v>
       </c>
       <c r="E138">
-        <v>6.187771934164763E-24</v>
+        <v>4.803968743640328E-12</v>
       </c>
     </row>
     <row r="139">
@@ -2994,16 +2994,16 @@
         </is>
       </c>
       <c r="B139">
-        <v>-1444061.522477991</v>
+        <v>-1444061.522476952</v>
       </c>
       <c r="C139">
-        <v>67284.97531654304</v>
+        <v>98214.00011452843</v>
       </c>
       <c r="D139">
-        <v>-21.46187192139679</v>
+        <v>-14.70321462106233</v>
       </c>
       <c r="E139">
-        <v>8.111780789491998E-97</v>
+        <v>2.074953020953419E-46</v>
       </c>
     </row>
     <row r="140">
@@ -3013,16 +3013,16 @@
         </is>
       </c>
       <c r="B140">
-        <v>-1431060.744700251</v>
+        <v>-1431060.744699138</v>
       </c>
       <c r="C140">
-        <v>67284.97531654462</v>
+        <v>98214.0001145259</v>
       </c>
       <c r="D140">
-        <v>-21.26865229522302</v>
+        <v>-14.57084268057913</v>
       </c>
       <c r="E140">
-        <v>3.32908177256767E-95</v>
+        <v>1.19123683829715E-45</v>
       </c>
     </row>
     <row r="141">
@@ -3032,16 +3032,16 @@
         </is>
       </c>
       <c r="B141">
-        <v>-1612347.078033314</v>
+        <v>-1612347.078032411</v>
       </c>
       <c r="C141">
-        <v>67284.97531653615</v>
+        <v>98214.00011452311</v>
       </c>
       <c r="D141">
-        <v>-23.96295860180034</v>
+        <v>-16.41667253296193</v>
       </c>
       <c r="E141">
-        <v>1.031670811710508E-118</v>
+        <v>1.04300069021793E-56</v>
       </c>
     </row>
     <row r="142">
@@ -3051,16 +3051,16 @@
         </is>
       </c>
       <c r="B142">
-        <v>-941359.3121319561</v>
+        <v>-941359.312130969</v>
       </c>
       <c r="C142">
-        <v>67518.27399014919</v>
+        <v>98554.53967553139</v>
       </c>
       <c r="D142">
-        <v>-13.9422893462783</v>
+        <v>-9.551658556066341</v>
       </c>
       <c r="E142">
-        <v>3.512887616823227E-43</v>
+        <v>3.812216547496201E-21</v>
       </c>
     </row>
     <row r="143">
@@ -3070,16 +3070,16 @@
         </is>
       </c>
       <c r="B143">
-        <v>-1453705.312131945</v>
+        <v>-1453705.312130883</v>
       </c>
       <c r="C143">
-        <v>67518.27399014911</v>
+        <v>98554.53967552727</v>
       </c>
       <c r="D143">
-        <v>-21.53054612065527</v>
+        <v>-14.75026231076662</v>
       </c>
       <c r="E143">
-        <v>2.15264716857783E-97</v>
+        <v>1.111602463565583E-46</v>
       </c>
     </row>
     <row r="144">
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B144">
-        <v>-1581491.867687362</v>
+        <v>-1581491.86768643</v>
       </c>
       <c r="C144">
-        <v>67518.27399014475</v>
+        <v>98554.53967552765</v>
       </c>
       <c r="D144">
-        <v>-23.42316789552712</v>
+        <v>-16.0468698133358</v>
       </c>
       <c r="E144">
-        <v>7.8464297018566E-114</v>
+        <v>2.05945945202845E-54</v>
       </c>
     </row>
     <row r="145">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B145">
-        <v>-1533302.534354035</v>
+        <v>-1533302.534353189</v>
       </c>
       <c r="C145">
-        <v>67518.27399014507</v>
+        <v>98554.53967553168</v>
       </c>
       <c r="D145">
-        <v>-22.70944506931316</v>
+        <v>-15.5579087417103</v>
       </c>
       <c r="E145">
-        <v>1.655595123404224E-107</v>
+        <v>1.941864475287335E-51</v>
       </c>
     </row>
     <row r="146">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B146">
-        <v>-1333640.078033605</v>
+        <v>-1333640.078032594</v>
       </c>
       <c r="C146">
-        <v>67284.97531654623</v>
+        <v>98214.00011453239</v>
       </c>
       <c r="D146">
-        <v>-19.82077085945881</v>
+        <v>-13.5789202809922</v>
       </c>
       <c r="E146">
-        <v>1.728213426307229E-83</v>
+        <v>3.880927044706309E-40</v>
       </c>
     </row>
     <row r="147">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B147">
-        <v>-1652999.978798424</v>
+        <v>-1652999.978797641</v>
       </c>
       <c r="C147">
-        <v>67518.27399014366</v>
+        <v>98554.53967553219</v>
       </c>
       <c r="D147">
-        <v>-24.48226059569783</v>
+        <v>-16.77243873534144</v>
       </c>
       <c r="E147">
-        <v>1.736105037413701E-123</v>
+        <v>5.934762557397603E-59</v>
       </c>
     </row>
     <row r="148">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B148">
-        <v>-729780.4113668044</v>
+        <v>-729780.4113657896</v>
       </c>
       <c r="C148">
-        <v>67284.97531654012</v>
+        <v>98214.00011452487</v>
       </c>
       <c r="D148">
-        <v>-10.84611249292393</v>
+        <v>-7.430513068552457</v>
       </c>
       <c r="E148">
-        <v>4.918606926830739E-27</v>
+        <v>1.632190387198621E-13</v>
       </c>
     </row>
     <row r="149">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B149">
-        <v>-1508844.855811101</v>
+        <v>-1508844.855810299</v>
       </c>
       <c r="C149">
-        <v>67284.97531653559</v>
+        <v>98214.00011452787</v>
       </c>
       <c r="D149">
-        <v>-22.4246921205349</v>
+        <v>-15.36282866038271</v>
       </c>
       <c r="E149">
-        <v>5.014490610093387E-105</v>
+        <v>2.853184962469545E-50</v>
       </c>
     </row>
     <row r="150">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B150">
-        <v>-1595234.411366866</v>
+        <v>-1595234.41136585</v>
       </c>
       <c r="C150">
-        <v>67284.9753165427</v>
+        <v>98214.0001145281</v>
       </c>
       <c r="D150">
-        <v>-23.70862742926001</v>
+        <v>-16.24243396568345</v>
       </c>
       <c r="E150">
-        <v>2.107502142854898E-116</v>
+        <v>1.272619539945035E-55</v>
       </c>
     </row>
     <row r="151">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B151">
-        <v>-1636737.111111873</v>
+        <v>-1636737.11111067</v>
       </c>
       <c r="C151">
-        <v>67269.39330332378</v>
+        <v>98191.25548481781</v>
       </c>
       <c r="D151">
-        <v>-24.33108180018328</v>
+        <v>-16.66886835318792</v>
       </c>
       <c r="E151">
-        <v>4.33699989480013E-122</v>
+        <v>2.695195487208659E-58</v>
       </c>
     </row>
     <row r="152">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B152">
-        <v>-1673459.888889359</v>
+        <v>-1673459.8888886</v>
       </c>
       <c r="C152">
-        <v>67269.39330331481</v>
+        <v>98191.25548482458</v>
       </c>
       <c r="D152">
-        <v>-24.8769879838785</v>
+        <v>-17.04286069697146</v>
       </c>
       <c r="E152">
-        <v>3.634593457963122E-127</v>
+        <v>1.105286018886462E-60</v>
       </c>
     </row>
     <row r="153">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B153">
-        <v>-1725533.300255654</v>
+        <v>-1725533.300254786</v>
       </c>
       <c r="C153">
-        <v>67284.97531653979</v>
+        <v>98214.00011452983</v>
       </c>
       <c r="D153">
-        <v>-25.64515023061157</v>
+        <v>-17.56911741953894</v>
       </c>
       <c r="E153">
-        <v>1.898597992938798E-134</v>
+        <v>4.1661621826132E-64</v>
       </c>
     </row>
     <row r="154">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B154">
-        <v>-1448173.855811168</v>
+        <v>-1448173.855810252</v>
       </c>
       <c r="C154">
-        <v>67284.97531653821</v>
+        <v>98214.00011452629</v>
       </c>
       <c r="D154">
-        <v>-21.52299007316744</v>
+        <v>-14.74508577312351</v>
       </c>
       <c r="E154">
-        <v>2.491354551314132E-97</v>
+        <v>1.190711796876786E-46</v>
       </c>
     </row>
     <row r="155">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B155">
-        <v>-1080957.534354259</v>
+        <v>-1080957.534353204</v>
       </c>
       <c r="C155">
-        <v>67518.2739901522</v>
+        <v>98554.53967553232</v>
       </c>
       <c r="D155">
-        <v>-16.00985141462474</v>
+        <v>-10.96811509558061</v>
       </c>
       <c r="E155">
-        <v>5.711844041353177E-56</v>
+        <v>3.54390148590543E-27</v>
       </c>
     </row>
     <row r="156">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B156">
-        <v>-1738884.300255594</v>
+        <v>-1738884.300254631</v>
       </c>
       <c r="C156">
-        <v>67284.9753165382</v>
+        <v>98214.00011452356</v>
       </c>
       <c r="D156">
-        <v>-25.8435749151295</v>
+        <v>-17.705055269381</v>
       </c>
       <c r="E156">
-        <v>2.352840338179862E-136</v>
+        <v>5.287712818097309E-65</v>
       </c>
     </row>
     <row r="157">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B157">
-        <v>-1450341.522477807</v>
+        <v>-1450341.522476893</v>
       </c>
       <c r="C157">
-        <v>67284.97531653663</v>
+        <v>98214.00011452493</v>
       </c>
       <c r="D157">
-        <v>-21.55520627977932</v>
+        <v>-14.76715662518262</v>
       </c>
       <c r="E157">
-        <v>1.3357703675199E-97</v>
+        <v>8.880748791081035E-47</v>
       </c>
     </row>
     <row r="158">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B158">
-        <v>-1380646.633588896</v>
+        <v>-1380646.633588108</v>
       </c>
       <c r="C158">
-        <v>67284.97531653584</v>
+        <v>98214.00011453015</v>
       </c>
       <c r="D158">
-        <v>-20.51938976114317</v>
+        <v>-14.05753387478462</v>
       </c>
       <c r="E158">
-        <v>4.654209855464326E-89</v>
+        <v>9.282999308512391E-43</v>
       </c>
     </row>
     <row r="159">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B159">
-        <v>-1606739.312132048</v>
+        <v>-1606739.312131022</v>
       </c>
       <c r="C159">
-        <v>67518.27399015261</v>
+        <v>98554.53967553422</v>
       </c>
       <c r="D159">
-        <v>-23.79710287568055</v>
+        <v>-16.30304720026904</v>
       </c>
       <c r="E159">
-        <v>3.328062863518561E-117</v>
+        <v>5.34246648419382E-56</v>
       </c>
     </row>
     <row r="160">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B160">
-        <v>-1406473.333333903</v>
+        <v>-1406473.333333042</v>
       </c>
       <c r="C160">
-        <v>67269.39330331721</v>
+        <v>98191.25548482494</v>
       </c>
       <c r="D160">
-        <v>-20.90807221929482</v>
+        <v>-14.32381454324521</v>
       </c>
       <c r="E160">
-        <v>3.175545546538253E-92</v>
+        <v>3.00533680075857E-44</v>
       </c>
     </row>
     <row r="161">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B161">
-        <v>-1123319.966922479</v>
+        <v>-1123319.966921383</v>
       </c>
       <c r="C161">
-        <v>67284.97531654622</v>
+        <v>98214.00011452765</v>
       </c>
       <c r="D161">
-        <v>-16.69495993180873</v>
+        <v>-11.43747292251081</v>
       </c>
       <c r="E161">
-        <v>1.508377289466791E-60</v>
+        <v>2.465310920123112E-29</v>
       </c>
     </row>
     <row r="162">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B162">
-        <v>-1659380.333333879</v>
+        <v>-1659380.33333303</v>
       </c>
       <c r="C162">
-        <v>67269.39330331709</v>
+        <v>98191.25548482384</v>
       </c>
       <c r="D162">
-        <v>-24.66768692043568</v>
+        <v>-16.89947159897043</v>
       </c>
       <c r="E162">
-        <v>3.285895395101335E-125</v>
+        <v>9.189033952803227E-60</v>
       </c>
     </row>
     <row r="163">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B163">
-        <v>-986651.1111117334</v>
+        <v>-986651.1111107446</v>
       </c>
       <c r="C163">
-        <v>67269.39330331866</v>
+        <v>98191.25548482005</v>
       </c>
       <c r="D163">
-        <v>-14.66716232541164</v>
+        <v>-10.04825843441096</v>
       </c>
       <c r="E163">
-        <v>1.739172710103698E-47</v>
+        <v>3.545952256384452E-23</v>
       </c>
     </row>
     <row r="164">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B164">
-        <v>-1562200.222223011</v>
+        <v>-1562200.222221837</v>
       </c>
       <c r="C164">
-        <v>67269.39330332464</v>
+        <v>98191.25548482024</v>
       </c>
       <c r="D164">
-        <v>-23.2230461062565</v>
+        <v>-15.90976930184321</v>
       </c>
       <c r="E164">
-        <v>4.819104289310015E-112</v>
+        <v>1.428216091834138E-53</v>
       </c>
     </row>
     <row r="165">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B165">
-        <v>-1522682.111111788</v>
+        <v>-1522682.111110771</v>
       </c>
       <c r="C165">
-        <v>67269.39330332156</v>
+        <v>98191.25548482245</v>
       </c>
       <c r="D165">
-        <v>-22.63558561091709</v>
+        <v>-15.50730870679349</v>
       </c>
       <c r="E165">
-        <v>7.325969360057488E-107</v>
+        <v>3.908666517016874E-51</v>
       </c>
     </row>
     <row r="166">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B166">
-        <v>-1479880.078033471</v>
+        <v>-1479880.078032583</v>
       </c>
       <c r="C166">
-        <v>67284.97531654124</v>
+        <v>98214.0001145314</v>
       </c>
       <c r="D166">
-        <v>-21.99421298843308</v>
+        <v>-15.06791370178217</v>
       </c>
       <c r="E166">
-        <v>2.542248941380068E-101</v>
+        <v>1.578194764492289E-48</v>
       </c>
     </row>
     <row r="167">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B167">
-        <v>-1536013.411366641</v>
+        <v>-1536013.411365794</v>
       </c>
       <c r="C167">
-        <v>67284.9753165358</v>
+        <v>98214.00011452565</v>
       </c>
       <c r="D167">
-        <v>-22.82847551240989</v>
+        <v>-15.63945475771962</v>
       </c>
       <c r="E167">
-        <v>1.494918500996778E-108</v>
+        <v>6.266357584214202E-52</v>
       </c>
     </row>
     <row r="168">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B168">
-        <v>-1458320.966922343</v>
+        <v>-1458320.966921298</v>
       </c>
       <c r="C168">
-        <v>67284.97531654013</v>
+        <v>98214.00011452273</v>
       </c>
       <c r="D168">
-        <v>-21.67379805167077</v>
+        <v>-14.84840211396357</v>
       </c>
       <c r="E168">
-        <v>1.338110096431058E-98</v>
+        <v>3.00848772064701E-47</v>
       </c>
     </row>
     <row r="169">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B169">
-        <v>-1260099.411366863</v>
+        <v>-1260099.411365809</v>
       </c>
       <c r="C169">
-        <v>67284.97531654277</v>
+        <v>98214.00011452637</v>
       </c>
       <c r="D169">
-        <v>-18.7277977800945</v>
+        <v>-12.83014040662655</v>
       </c>
       <c r="E169">
-        <v>4.296412280334468E-75</v>
+        <v>3.475772206210674E-36</v>
       </c>
     </row>
     <row r="170">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B170">
-        <v>-1343471.633588996</v>
+        <v>-1343471.633588077</v>
       </c>
       <c r="C170">
-        <v>67284.97531653961</v>
+        <v>98214.00011452877</v>
       </c>
       <c r="D170">
-        <v>-19.96688900112818</v>
+        <v>-13.67902368319623</v>
       </c>
       <c r="E170">
-        <v>1.217960932411794E-84</v>
+        <v>1.113667709633685E-40</v>
       </c>
     </row>
     <row r="171">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B171">
-        <v>-1777500.444445243</v>
+        <v>-1777500.444444143</v>
       </c>
       <c r="C171">
-        <v>67269.39330332456</v>
+        <v>98191.25548482379</v>
       </c>
       <c r="D171">
-        <v>-26.42361343189632</v>
+        <v>-18.10243117544076</v>
       </c>
       <c r="E171">
-        <v>5.468445790266522E-142</v>
+        <v>1.187947770124094E-67</v>
       </c>
     </row>
     <row r="172">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B172">
-        <v>-1741606.411366796</v>
+        <v>-1741606.41136574</v>
       </c>
       <c r="C172">
-        <v>67284.97531654075</v>
+        <v>98214.00011452351</v>
       </c>
       <c r="D172">
-        <v>-25.88403136321958</v>
+        <v>-17.73277139038142</v>
       </c>
       <c r="E172">
-        <v>9.583530840933047E-137</v>
+        <v>3.466469798756391E-65</v>
       </c>
     </row>
     <row r="173">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B173">
-        <v>-1788149.078033313</v>
+        <v>-1788149.078032462</v>
       </c>
       <c r="C173">
-        <v>67284.97531653663</v>
+        <v>98214.00011452574</v>
       </c>
       <c r="D173">
-        <v>-26.57575587448926</v>
+        <v>-18.20666173811605</v>
       </c>
       <c r="E173">
-        <v>1.760421480646675E-143</v>
+        <v>2.362156145510632E-68</v>
       </c>
     </row>
     <row r="174">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B174">
-        <v>-1793757.089909761</v>
+        <v>-1793757.089908729</v>
       </c>
       <c r="C174">
-        <v>67518.27399015031</v>
+        <v>98554.5396755309</v>
       </c>
       <c r="D174">
-        <v>-26.56698674156625</v>
+        <v>-18.20065413337913</v>
       </c>
       <c r="E174">
-        <v>2.146786429938372E-143</v>
+        <v>2.593085507404863E-68</v>
       </c>
     </row>
     <row r="175">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B175">
-        <v>39476.69974430137</v>
+        <v>39476.69974530464</v>
       </c>
       <c r="C175">
-        <v>67284.97531653827</v>
+        <v>98214.00011452881</v>
       </c>
       <c r="D175">
-        <v>0.5867089875352636</v>
+        <v>0.401945748052928</v>
       </c>
       <c r="E175">
-        <v>0.5574321808214048</v>
+        <v>0.6877695700989737</v>
       </c>
     </row>
     <row r="176">
@@ -3697,16 +3697,16 @@
         </is>
       </c>
       <c r="B176">
-        <v>-1770352.411366787</v>
+        <v>-1770352.411365844</v>
       </c>
       <c r="C176">
-        <v>67284.97531654043</v>
+        <v>98214.00011452769</v>
       </c>
       <c r="D176">
-        <v>-26.31125898520746</v>
+        <v>-18.02545878694921</v>
       </c>
       <c r="E176">
-        <v>6.854987607109181E-141</v>
+        <v>3.899690496789539E-67</v>
       </c>
     </row>
     <row r="177">
@@ -3716,16 +3716,16 @@
         </is>
       </c>
       <c r="B177">
-        <v>-1644696.855811313</v>
+        <v>-1644696.855810206</v>
       </c>
       <c r="C177">
-        <v>67284.97531654293</v>
+        <v>98214.00011452431</v>
       </c>
       <c r="D177">
-        <v>-24.44374614204462</v>
+        <v>-16.74605304633123</v>
       </c>
       <c r="E177">
-        <v>3.946750167899299E-123</v>
+        <v>8.731977132975948E-59</v>
       </c>
     </row>
     <row r="178">
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B178">
-        <v>-1477030.522477882</v>
+        <v>-1477030.522476939</v>
       </c>
       <c r="C178">
-        <v>67284.97531653965</v>
+        <v>98214.00011452725</v>
       </c>
       <c r="D178">
-        <v>-21.95186244074918</v>
+        <v>-15.03889996084646</v>
       </c>
       <c r="E178">
-        <v>5.843755548263556E-101</v>
+        <v>2.334567130645606E-48</v>
       </c>
     </row>
     <row r="179">
@@ -3754,16 +3754,16 @@
         </is>
       </c>
       <c r="B179">
-        <v>-1534396.666667303</v>
+        <v>-1534396.666666279</v>
       </c>
       <c r="C179">
-        <v>67269.39330331986</v>
+        <v>98191.25548482002</v>
       </c>
       <c r="D179">
-        <v>-22.80972952660149</v>
+        <v>-15.62661215696026</v>
       </c>
       <c r="E179">
-        <v>2.184574447475199E-108</v>
+        <v>7.490387831715267E-52</v>
       </c>
     </row>
     <row r="180">
@@ -3773,16 +3773,16 @@
         </is>
       </c>
       <c r="B180">
-        <v>-1340867.855811115</v>
+        <v>-1340867.855810223</v>
       </c>
       <c r="C180">
-        <v>67284.97531653628</v>
+        <v>98214.00011452471</v>
       </c>
       <c r="D180">
-        <v>-19.92819124185035</v>
+        <v>-13.65251241418406</v>
       </c>
       <c r="E180">
-        <v>2.462575816773608E-84</v>
+        <v>1.551171443936366E-40</v>
       </c>
     </row>
     <row r="181">
@@ -3792,16 +3792,16 @@
         </is>
       </c>
       <c r="B181">
-        <v>-1647189.300255692</v>
+        <v>-1647189.300254724</v>
       </c>
       <c r="C181">
-        <v>67284.97531654092</v>
+        <v>98214.00011452739</v>
       </c>
       <c r="D181">
-        <v>-24.48078924762208</v>
+        <v>-16.77143073628948</v>
       </c>
       <c r="E181">
-        <v>1.79146793408644E-123</v>
+        <v>6.023013211123643E-59</v>
       </c>
     </row>
     <row r="182">
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="B182">
-        <v>-814444.4113668305</v>
+        <v>-814444.4113657655</v>
       </c>
       <c r="C182">
-        <v>67284.97531654172</v>
+        <v>98214.00011452333</v>
       </c>
       <c r="D182">
-        <v>-12.10440232065602</v>
+        <v>-8.29254902983358</v>
       </c>
       <c r="E182">
-        <v>3.761479155506114E-33</v>
+        <v>2.082870041985751E-16</v>
       </c>
     </row>
     <row r="183">
@@ -3830,16 +3830,16 @@
         </is>
       </c>
       <c r="B183">
-        <v>-1552228.411366771</v>
+        <v>-1552228.411365749</v>
       </c>
       <c r="C183">
-        <v>67284.97531653996</v>
+        <v>98214.0001145235</v>
       </c>
       <c r="D183">
-        <v>-23.06946542024223</v>
+        <v>-15.80455341963219</v>
       </c>
       <c r="E183">
-        <v>1.115480017698816E-110</v>
+        <v>6.259512244376431E-53</v>
       </c>
     </row>
     <row r="184">
@@ -3849,16 +3849,16 @@
         </is>
       </c>
       <c r="B184">
-        <v>-1514600.633589145</v>
+        <v>-1514600.63358802</v>
       </c>
       <c r="C184">
-        <v>67284.97531654481</v>
+        <v>98214.0001145256</v>
       </c>
       <c r="D184">
-        <v>-22.51023540491243</v>
+        <v>-15.42143311362811</v>
       </c>
       <c r="E184">
-        <v>9.064829813360027E-106</v>
+        <v>1.276151969533665E-50</v>
       </c>
     </row>
     <row r="185">
@@ -3868,16 +3868,16 @@
         </is>
       </c>
       <c r="B185">
-        <v>-1511881.000000736</v>
+        <v>-1511880.999999663</v>
       </c>
       <c r="C185">
-        <v>67269.39330332323</v>
+        <v>98191.2554848225</v>
       </c>
       <c r="D185">
-        <v>-22.47502059641805</v>
+        <v>-15.39730796326722</v>
       </c>
       <c r="E185">
-        <v>1.834144161186141E-105</v>
+        <v>1.777754298527557E-50</v>
       </c>
     </row>
     <row r="186">
@@ -3887,16 +3887,16 @@
         </is>
       </c>
       <c r="B186">
-        <v>-1419431.222222916</v>
+        <v>-1419431.222221908</v>
       </c>
       <c r="C186">
-        <v>67269.39330332167</v>
+        <v>98191.25548482349</v>
       </c>
       <c r="D186">
-        <v>-21.10069903295569</v>
+        <v>-14.45578035654404</v>
       </c>
       <c r="E186">
-        <v>8.225768576963084E-94</v>
+        <v>5.386920221710847E-45</v>
       </c>
     </row>
     <row r="187">
@@ -3906,16 +3906,16 @@
         </is>
       </c>
       <c r="B187">
-        <v>-1436078.333333949</v>
+        <v>-1436078.333332992</v>
       </c>
       <c r="C187">
-        <v>67269.39330331926</v>
+        <v>98191.25548482234</v>
       </c>
       <c r="D187">
-        <v>-21.34816835434562</v>
+        <v>-14.62531796993848</v>
       </c>
       <c r="E187">
-        <v>7.241622470301426E-96</v>
+        <v>5.811702541288755E-46</v>
       </c>
     </row>
     <row r="188">
@@ -3925,16 +3925,16 @@
         </is>
       </c>
       <c r="B188">
-        <v>-1592087.22222294</v>
+        <v>-1592087.222221873</v>
       </c>
       <c r="C188">
-        <v>67269.39330332262</v>
+        <v>98191.25548482199</v>
       </c>
       <c r="D188">
-        <v>-23.66733434095507</v>
+        <v>-16.2141446747055</v>
       </c>
       <c r="E188">
-        <v>4.97864480320391E-116</v>
+        <v>1.906655585239342E-55</v>
       </c>
     </row>
     <row r="189">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="B189">
-        <v>-1419100.30025578</v>
+        <v>-1419100.300254656</v>
       </c>
       <c r="C189">
-        <v>67284.97531654386</v>
+        <v>98214.00011452395</v>
       </c>
       <c r="D189">
-        <v>-21.09089426843938</v>
+        <v>-14.44906325574656</v>
       </c>
       <c r="E189">
-        <v>9.913272793579535E-94</v>
+        <v>5.88127161905641E-45</v>
       </c>
     </row>
     <row r="190">
@@ -3963,16 +3963,16 @@
         </is>
       </c>
       <c r="B190">
-        <v>-1655034.888889529</v>
+        <v>-1655034.888888515</v>
       </c>
       <c r="C190">
-        <v>67269.39330332013</v>
+        <v>98191.25548482084</v>
       </c>
       <c r="D190">
-        <v>-24.6030892745965</v>
+        <v>-16.85521669640289</v>
       </c>
       <c r="E190">
-        <v>1.312075117825881E-124</v>
+        <v>1.762001662019162E-59</v>
       </c>
     </row>
     <row r="191">
@@ -3982,16 +3982,16 @@
         </is>
       </c>
       <c r="B191">
-        <v>-1185000.000000602</v>
+        <v>-1184999.999999648</v>
       </c>
       <c r="C191">
-        <v>67269.39330331866</v>
+        <v>98191.25548482178</v>
       </c>
       <c r="D191">
-        <v>-17.61573788331076</v>
+        <v>-12.06828443274995</v>
       </c>
       <c r="E191">
-        <v>5.832392720283349E-67</v>
+        <v>2.34890432619596E-32</v>
       </c>
     </row>
     <row r="192">
@@ -4001,16 +4001,16 @@
         </is>
       </c>
       <c r="B192">
-        <v>-1514261.633589013</v>
+        <v>-1514261.633588002</v>
       </c>
       <c r="C192">
-        <v>67284.97531654048</v>
+        <v>98214.00011452481</v>
       </c>
       <c r="D192">
-        <v>-22.50519713301828</v>
+        <v>-15.41798146722728</v>
       </c>
       <c r="E192">
-        <v>1.002704789203048E-105</v>
+        <v>1.338169297116454E-50</v>
       </c>
     </row>
     <row r="193">
@@ -4020,16 +4020,16 @@
         </is>
       </c>
       <c r="B193">
-        <v>-1637473.666667341</v>
+        <v>-1637473.66666628</v>
       </c>
       <c r="C193">
-        <v>67269.39330332106</v>
+        <v>98191.25548482014</v>
       </c>
       <c r="D193">
-        <v>-24.34203114162023</v>
+        <v>-16.67636958689691</v>
       </c>
       <c r="E193">
-        <v>3.437004128679674E-122</v>
+        <v>2.415978483832858E-58</v>
       </c>
     </row>
     <row r="194">
@@ -4039,16 +4039,16 @@
         </is>
       </c>
       <c r="B194">
-        <v>-1755340.333334084</v>
+        <v>-1755340.333332966</v>
       </c>
       <c r="C194">
-        <v>67269.39330332323</v>
+        <v>98191.25548482103</v>
       </c>
       <c r="D194">
-        <v>-26.0941900489441</v>
+        <v>-17.8767480328665</v>
       </c>
       <c r="E194">
-        <v>8.877425169473436E-139</v>
+        <v>3.837294259924406E-66</v>
       </c>
     </row>
     <row r="195">
@@ -4058,16 +4058,16 @@
         </is>
       </c>
       <c r="B195">
-        <v>-1088170.411366832</v>
+        <v>-1088170.41136578</v>
       </c>
       <c r="C195">
-        <v>67284.97531654236</v>
+        <v>98214.00011452478</v>
       </c>
       <c r="D195">
-        <v>-16.17256164912793</v>
+        <v>-11.07958549796254</v>
       </c>
       <c r="E195">
-        <v>4.836707210041542E-57</v>
+        <v>1.106892371213277E-27</v>
       </c>
     </row>
     <row r="196">
@@ -4077,16 +4077,16 @@
         </is>
       </c>
       <c r="B196">
-        <v>-1511565.333334005</v>
+        <v>-1511565.333332932</v>
       </c>
       <c r="C196">
-        <v>67269.39330332119</v>
+        <v>98191.25548481928</v>
       </c>
       <c r="D196">
-        <v>-22.47032802151609</v>
+        <v>-15.39409314882042</v>
       </c>
       <c r="E196">
-        <v>2.014612906915E-105</v>
+        <v>1.857990145990301E-50</v>
       </c>
     </row>
     <row r="197">
@@ -4096,16 +4096,16 @@
         </is>
       </c>
       <c r="B197">
-        <v>-1765429.555556277</v>
+        <v>-1765429.555555163</v>
       </c>
       <c r="C197">
-        <v>67269.39330332246</v>
+        <v>98191.25548482007</v>
       </c>
       <c r="D197">
-        <v>-26.24417240684527</v>
+        <v>-17.97949875310527</v>
       </c>
       <c r="E197">
-        <v>3.091270338813181E-140</v>
+        <v>7.916581480920204E-67</v>
       </c>
     </row>
     <row r="198">
@@ -4115,16 +4115,16 @@
         </is>
       </c>
       <c r="B198">
-        <v>-965788.88888952</v>
+        <v>-965788.8888885363</v>
       </c>
       <c r="C198">
-        <v>67269.39330331956</v>
+        <v>98191.25548482219</v>
       </c>
       <c r="D198">
-        <v>-14.35703284158891</v>
+        <v>-9.835793259999837</v>
       </c>
       <c r="E198">
-        <v>1.276964210068566E-45</v>
+        <v>2.691468226923725E-22</v>
       </c>
     </row>
     <row r="199">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B199">
-        <v>-1295017.555556184</v>
+        <v>-1295017.555555194</v>
       </c>
       <c r="C199">
-        <v>67269.39330331962</v>
+        <v>98191.25548482113</v>
       </c>
       <c r="D199">
-        <v>-19.25121503202672</v>
+        <v>-13.18872591210919</v>
       </c>
       <c r="E199">
-        <v>4.587615217273174E-79</v>
+        <v>4.691681366387382E-38</v>
       </c>
     </row>
     <row r="200">
@@ -4153,16 +4153,16 @@
         </is>
       </c>
       <c r="B200">
-        <v>-1540788.111111803</v>
+        <v>-1540788.111110723</v>
       </c>
       <c r="C200">
-        <v>67269.39330332175</v>
+        <v>98191.25548481997</v>
       </c>
       <c r="D200">
-        <v>-22.90474219329282</v>
+        <v>-15.69170394556085</v>
       </c>
       <c r="E200">
-        <v>3.186238915069779E-109</v>
+        <v>3.028701509154953E-52</v>
       </c>
     </row>
     <row r="201">
@@ -4172,16 +4172,16 @@
         </is>
       </c>
       <c r="B201">
-        <v>-1595569.111111714</v>
+        <v>-1595569.111110776</v>
       </c>
       <c r="C201">
-        <v>67269.393303319</v>
+        <v>98191.25548482256</v>
       </c>
       <c r="D201">
-        <v>-23.71909471395501</v>
+        <v>-16.24960494936745</v>
       </c>
       <c r="E201">
-        <v>1.694542845983534E-116</v>
+        <v>1.148567513865473E-55</v>
       </c>
     </row>
     <row r="202">
@@ -4191,16 +4191,16 @@
         </is>
       </c>
       <c r="B202">
-        <v>-1788375.555556179</v>
+        <v>-1788375.55555521</v>
       </c>
       <c r="C202">
-        <v>67269.39330331961</v>
+        <v>98191.25548482199</v>
       </c>
       <c r="D202">
-        <v>-26.58527850091264</v>
+        <v>-18.2131855502311</v>
       </c>
       <c r="E202">
-        <v>1.419115034389912E-143</v>
+        <v>2.134563861630996E-68</v>
       </c>
     </row>
     <row r="203">
@@ -4210,16 +4210,16 @@
         </is>
       </c>
       <c r="B203">
-        <v>-1454337.88888953</v>
+        <v>-1454337.888888576</v>
       </c>
       <c r="C203">
-        <v>67269.39330332013</v>
+        <v>98191.25548482363</v>
       </c>
       <c r="D203">
-        <v>-21.619607632432</v>
+        <v>-14.81127705015807</v>
       </c>
       <c r="E203">
-        <v>3.833797815744921E-98</v>
+        <v>4.936408486223889E-47</v>
       </c>
     </row>
     <row r="204">
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="B204">
-        <v>-1763120.333333982</v>
+        <v>-1763120.333333019</v>
       </c>
       <c r="C204">
-        <v>67269.39330332035</v>
+        <v>98191.25548482321</v>
       </c>
       <c r="D204">
-        <v>-26.20984442930833</v>
+        <v>-17.95598115766564</v>
       </c>
       <c r="E204">
-        <v>6.674189551267947E-140</v>
+        <v>1.136777490797097E-66</v>
       </c>
     </row>
     <row r="205">
@@ -4248,16 +4248,16 @@
         </is>
       </c>
       <c r="B205">
-        <v>-1337686.444445089</v>
+        <v>-1337686.444444067</v>
       </c>
       <c r="C205">
-        <v>67269.39330332026</v>
+        <v>98191.25548482042</v>
       </c>
       <c r="D205">
-        <v>-19.88551373450641</v>
+        <v>-13.62327467796623</v>
       </c>
       <c r="E205">
-        <v>5.346010301750402E-84</v>
+        <v>2.234093088913041E-40</v>
       </c>
     </row>
     <row r="206">
@@ -4267,16 +4267,16 @@
         </is>
       </c>
       <c r="B206">
-        <v>-1771977.11111168</v>
+        <v>-1771977.111110751</v>
       </c>
       <c r="C206">
-        <v>67269.39330331828</v>
+        <v>98191.25548482145</v>
       </c>
       <c r="D206">
-        <v>-26.34150575911722</v>
+        <v>-18.0461804094629</v>
       </c>
       <c r="E206">
-        <v>3.472965011709522E-141</v>
+        <v>2.832742410153236E-67</v>
       </c>
     </row>
     <row r="207">
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="B207">
-        <v>-1773282.777778435</v>
+        <v>-1773282.777777457</v>
       </c>
       <c r="C207">
-        <v>67269.39330332044</v>
+        <v>98191.25548482306</v>
       </c>
       <c r="D207">
-        <v>-26.36091527959276</v>
+        <v>-18.05947758811929</v>
       </c>
       <c r="E207">
-        <v>2.244270818918091E-141</v>
+        <v>2.307091616038779E-67</v>
       </c>
     </row>
     <row r="208">
@@ -4305,16 +4305,16 @@
         </is>
       </c>
       <c r="B208">
-        <v>-1675625.666667379</v>
+        <v>-1675625.666666314</v>
       </c>
       <c r="C208">
-        <v>67269.3933033221</v>
+        <v>98191.2554848218</v>
       </c>
       <c r="D208">
-        <v>-24.90918357345477</v>
+        <v>-17.06491742460029</v>
       </c>
       <c r="E208">
-        <v>1.813318110411691E-127</v>
+        <v>7.970520490620527E-61</v>
       </c>
     </row>
     <row r="209">
@@ -4324,16 +4324,16 @@
         </is>
       </c>
       <c r="B209">
-        <v>-1777915.555556266</v>
+        <v>-1777915.555555245</v>
       </c>
       <c r="C209">
-        <v>67269.3933033222</v>
+        <v>98191.2554848235</v>
       </c>
       <c r="D209">
-        <v>-26.42978430828899</v>
+        <v>-18.10665875262223</v>
       </c>
       <c r="E209">
-        <v>4.758337463137259E-142</v>
+        <v>1.112755267195621E-67</v>
       </c>
     </row>
     <row r="210">
@@ -4343,16 +4343,16 @@
         </is>
       </c>
       <c r="B210">
-        <v>-1345611.000000658</v>
+        <v>-1345610.999999653</v>
       </c>
       <c r="C210">
-        <v>67269.39330332073</v>
+        <v>98191.25548482213</v>
       </c>
       <c r="D210">
-        <v>-20.00331702016751</v>
+        <v>-13.70397998636091</v>
       </c>
       <c r="E210">
-        <v>6.271470328901889E-85</v>
+        <v>8.148648421098617E-41</v>
       </c>
     </row>
     <row r="211">
@@ -4362,16 +4362,16 @@
         </is>
       </c>
       <c r="B211">
-        <v>3388723.222221528</v>
+        <v>3388723.222222527</v>
       </c>
       <c r="C211">
-        <v>67269.39330331943</v>
+        <v>98191.25548482065</v>
       </c>
       <c r="D211">
-        <v>50.37540931790015</v>
+        <v>34.51145629507088</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1.156037559198454E-202</v>
       </c>
     </row>
     <row r="212">
@@ -4381,16 +4381,16 @@
         </is>
       </c>
       <c r="B212">
-        <v>-691180.6666672985</v>
+        <v>-691180.6666663123</v>
       </c>
       <c r="C212">
-        <v>67269.39330331942</v>
+        <v>98191.25548482206</v>
       </c>
       <c r="D212">
-        <v>-10.27481641689181</v>
+        <v>-7.039126480801049</v>
       </c>
       <c r="E212">
-        <v>1.834656013860882E-24</v>
+        <v>2.699502593964139E-12</v>
       </c>
     </row>
     <row r="213">
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="B213">
-        <v>-648444.0780334816</v>
+        <v>-648444.0780324712</v>
       </c>
       <c r="C213">
-        <v>67284.97531654187</v>
+        <v>98214.00011452586</v>
       </c>
       <c r="D213">
-        <v>-9.637278976218381</v>
+        <v>-6.602358902766718</v>
       </c>
       <c r="E213">
-        <v>9.555639064003843E-22</v>
+        <v>5.247115236302353E-11</v>
       </c>
     </row>
     <row r="214">
@@ -4419,16 +4419,16 @@
         </is>
       </c>
       <c r="B214">
-        <v>-321487.8888895173</v>
+        <v>-321487.888888529</v>
       </c>
       <c r="C214">
-        <v>67269.39330331856</v>
+        <v>98191.25548482146</v>
       </c>
       <c r="D214">
-        <v>-4.779110872011648</v>
+        <v>-3.274098974508224</v>
       </c>
       <c r="E214">
-        <v>1.823758015542182E-06</v>
+        <v>0.001079207983575219</v>
       </c>
     </row>
     <row r="215">
@@ -4438,16 +4438,16 @@
         </is>
       </c>
       <c r="B215">
-        <v>-970882.8888895488</v>
+        <v>-970882.8888885414</v>
       </c>
       <c r="C215">
-        <v>67269.39330332111</v>
+        <v>98191.25548482216</v>
       </c>
       <c r="D215">
-        <v>-14.43275821608482</v>
+        <v>-9.887671606751324</v>
       </c>
       <c r="E215">
-        <v>4.506830692341947E-46</v>
+        <v>1.64658493454971E-22</v>
       </c>
     </row>
     <row r="216">
@@ -4457,16 +4457,16 @@
         </is>
       </c>
       <c r="B216">
-        <v>-1357608.888889565</v>
+        <v>-1357608.888888542</v>
       </c>
       <c r="C216">
-        <v>67269.39330332146</v>
+        <v>98191.25548482222</v>
       </c>
       <c r="D216">
-        <v>-20.18167285630228</v>
+        <v>-13.82616896163827</v>
       </c>
       <c r="E216">
-        <v>2.397914028957727E-86</v>
+        <v>1.753672881746505E-41</v>
       </c>
     </row>
     <row r="217">
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="B217">
-        <v>-1114856.666667337</v>
+        <v>-1114856.666666301</v>
       </c>
       <c r="C217">
-        <v>67269.39330332144</v>
+        <v>98191.25548482113</v>
       </c>
       <c r="D217">
-        <v>-16.5730150358334</v>
+        <v>-11.3539302574519</v>
       </c>
       <c r="E217">
-        <v>1.012899904527059E-59</v>
+        <v>6.047668717511504E-29</v>
       </c>
     </row>
     <row r="218">
@@ -4495,16 +4495,16 @@
         </is>
       </c>
       <c r="B218">
-        <v>-571824.33333397</v>
+        <v>-571824.3333329711</v>
       </c>
       <c r="C218">
-        <v>67269.39330331988</v>
+        <v>98191.25548482109</v>
       </c>
       <c r="D218">
-        <v>-8.500512718400707</v>
+        <v>-5.823576962221108</v>
       </c>
       <c r="E218">
-        <v>2.626498091141696E-17</v>
+        <v>6.757627381875814E-09</v>
       </c>
     </row>
     <row r="219">
@@ -4514,16 +4514,16 @@
         </is>
       </c>
       <c r="B219">
-        <v>671266.7777771325</v>
+        <v>671266.777778128</v>
       </c>
       <c r="C219">
-        <v>67269.3933033197</v>
+        <v>98191.25548482062</v>
       </c>
       <c r="D219">
-        <v>9.978784478557293</v>
+        <v>6.836319328678908</v>
       </c>
       <c r="E219">
-        <v>3.509086800591943E-23</v>
+        <v>1.093986188017654E-11</v>
       </c>
     </row>
     <row r="220">
@@ -4533,16 +4533,16 @@
         </is>
       </c>
       <c r="B220">
-        <v>-1744432.53435418</v>
+        <v>-1744432.534353175</v>
       </c>
       <c r="C220">
-        <v>67518.27399014978</v>
+        <v>98554.53967553108</v>
       </c>
       <c r="D220">
-        <v>-25.83645036021914</v>
+        <v>-17.70017434099262</v>
       </c>
       <c r="E220">
-        <v>2.755750961580209E-136</v>
+        <v>5.695618732682026E-65</v>
       </c>
     </row>
     <row r="221">
@@ -4552,16 +4552,16 @@
         </is>
       </c>
       <c r="B221">
-        <v>-791629.5555561908</v>
+        <v>-791629.5555551939</v>
       </c>
       <c r="C221">
-        <v>67269.39330332007</v>
+        <v>98191.2554848212</v>
       </c>
       <c r="D221">
-        <v>-11.76804957920023</v>
+        <v>-8.062118685075447</v>
       </c>
       <c r="E221">
-        <v>1.865536379189199E-31</v>
+        <v>1.319515343372693E-15</v>
       </c>
     </row>
     <row r="222">
@@ -4571,16 +4571,16 @@
         </is>
       </c>
       <c r="B222">
-        <v>-1766694.11111179</v>
+        <v>-1766694.111110733</v>
       </c>
       <c r="C222">
-        <v>67269.39330332135</v>
+        <v>98191.25548482082</v>
       </c>
       <c r="D222">
-        <v>-26.26297078592146</v>
+        <v>-17.99237724772592</v>
       </c>
       <c r="E222">
-        <v>2.027501318119476E-140</v>
+        <v>6.492713233944387E-67</v>
       </c>
     </row>
     <row r="223">
@@ -4590,16 +4590,16 @@
         </is>
       </c>
       <c r="B223">
-        <v>-1621068.715006965</v>
+        <v>-1621068.715005957</v>
       </c>
       <c r="C223">
-        <v>71945.39308493481</v>
+        <v>105016.6818289136</v>
       </c>
       <c r="D223">
-        <v>-22.53193214321894</v>
+        <v>-15.43629723177598</v>
       </c>
       <c r="E223">
-        <v>5.869426520241167E-106</v>
+        <v>1.040191018822837E-50</v>
       </c>
     </row>
     <row r="224">
@@ -4609,16 +4609,16 @@
         </is>
       </c>
       <c r="B224">
-        <v>-1209820.888889547</v>
+        <v>-1209820.888888529</v>
       </c>
       <c r="C224">
-        <v>67269.39330332111</v>
+        <v>98191.25548482162</v>
       </c>
       <c r="D224">
-        <v>-17.98471532862506</v>
+        <v>-12.32106548505781</v>
       </c>
       <c r="E224">
-        <v>1.300057096600791E-69</v>
+        <v>1.32399956227813E-33</v>
       </c>
     </row>
     <row r="225">
@@ -4628,16 +4628,16 @@
         </is>
       </c>
       <c r="B225">
-        <v>-1727771.744700107</v>
+        <v>-1727771.744699152</v>
       </c>
       <c r="C225">
-        <v>67284.97531654031</v>
+        <v>98214.00011452676</v>
       </c>
       <c r="D225">
-        <v>-25.67841834780875</v>
+        <v>-17.5919089201581</v>
       </c>
       <c r="E225">
-        <v>9.108819874460878E-135</v>
+        <v>2.949686620189359E-64</v>
       </c>
     </row>
     <row r="226">
@@ -4647,16 +4647,16 @@
         </is>
       </c>
       <c r="B226">
-        <v>-1778372.63358902</v>
+        <v>-1778372.633588045</v>
       </c>
       <c r="C226">
-        <v>67284.97531654098</v>
+        <v>98214.00011452693</v>
       </c>
       <c r="D226">
-        <v>-26.43045680291472</v>
+        <v>-18.10711946885671</v>
       </c>
       <c r="E226">
-        <v>4.686745576035707E-142</v>
+        <v>1.104853341814816E-67</v>
       </c>
     </row>
     <row r="227">
@@ -4666,16 +4666,16 @@
         </is>
       </c>
       <c r="B227">
-        <v>-378952.4444450846</v>
+        <v>-378952.4444440859</v>
       </c>
       <c r="C227">
-        <v>67269.39330332028</v>
+        <v>98191.25548482138</v>
       </c>
       <c r="D227">
-        <v>-5.633356060405859</v>
+        <v>-3.859329861635849</v>
       </c>
       <c r="E227">
-        <v>1.888537683549064E-08</v>
+        <v>0.0001175310463199306</v>
       </c>
     </row>
     <row r="228">
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="B228">
-        <v>-1444493.633589023</v>
+        <v>-1444493.633588035</v>
       </c>
       <c r="C228">
-        <v>67284.97531654104</v>
+        <v>98214.00011452661</v>
       </c>
       <c r="D228">
-        <v>-21.46829402542584</v>
+        <v>-14.70761431062396</v>
       </c>
       <c r="E228">
-        <v>7.166373506829034E-97</v>
+        <v>1.957441827154963E-46</v>
       </c>
     </row>
     <row r="229">
@@ -4704,16 +4704,16 @@
         </is>
       </c>
       <c r="B229">
-        <v>-1749379.77777843</v>
+        <v>-1749379.777777425</v>
       </c>
       <c r="C229">
-        <v>67269.39330332064</v>
+        <v>98191.25548482183</v>
       </c>
       <c r="D229">
-        <v>-26.00558280480396</v>
+        <v>-17.81604450559082</v>
       </c>
       <c r="E229">
-        <v>6.411552119753075E-138</v>
+        <v>9.720783368072297E-66</v>
       </c>
     </row>
     <row r="230">
@@ -4723,16 +4723,16 @@
         </is>
       </c>
       <c r="B230">
-        <v>-1537141.88888953</v>
+        <v>-1537141.888888528</v>
       </c>
       <c r="C230">
-        <v>67269.39330332038</v>
+        <v>98191.25548482146</v>
       </c>
       <c r="D230">
-        <v>-22.85053890643098</v>
+        <v>-15.65457006633489</v>
       </c>
       <c r="E230">
-        <v>9.562693903973163E-109</v>
+        <v>5.078681012434766E-52</v>
       </c>
     </row>
     <row r="231">
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="B231">
-        <v>-1716093.089909741</v>
+        <v>-1716093.089908739</v>
       </c>
       <c r="C231">
-        <v>67518.27399014999</v>
+        <v>98554.53967553149</v>
       </c>
       <c r="D231">
-        <v>-25.41672037054881</v>
+        <v>-17.41262346268967</v>
       </c>
       <c r="E231">
-        <v>2.887908182231659E-132</v>
+        <v>4.422474322301021E-63</v>
       </c>
     </row>
     <row r="232">
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="B232">
-        <v>-1744140.645465288</v>
+        <v>-1744140.645464295</v>
       </c>
       <c r="C232">
-        <v>67518.27399014974</v>
+        <v>98554.53967553149</v>
       </c>
       <c r="D232">
-        <v>-25.83212725076089</v>
+        <v>-17.69721264191871</v>
       </c>
       <c r="E232">
-        <v>3.033109091603614E-136</v>
+        <v>5.958278568851117E-65</v>
       </c>
     </row>
     <row r="233">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B233">
-        <v>-1782455.534354179</v>
+        <v>-1782455.534353187</v>
       </c>
       <c r="C233">
-        <v>67518.2739901498</v>
+        <v>98554.5396755316</v>
       </c>
       <c r="D233">
-        <v>-26.399601604363</v>
+        <v>-18.0859810235177</v>
       </c>
       <c r="E233">
-        <v>9.393539117322739E-142</v>
+        <v>1.531979957301905E-67</v>
       </c>
     </row>
     <row r="234">
@@ -4799,16 +4799,16 @@
         </is>
       </c>
       <c r="B234">
-        <v>-1777392.222222865</v>
+        <v>-1777392.222221865</v>
       </c>
       <c r="C234">
-        <v>67269.39330332034</v>
+        <v>98191.25548482167</v>
       </c>
       <c r="D234">
-        <v>-26.422004643457</v>
+        <v>-18.10132901800622</v>
       </c>
       <c r="E234">
-        <v>5.670367788468279E-142</v>
+        <v>1.208370327619077E-67</v>
       </c>
     </row>
     <row r="235">
@@ -4818,16 +4818,16 @@
         </is>
       </c>
       <c r="B235">
-        <v>-1657448.888889523</v>
+        <v>-1657448.888888529</v>
       </c>
       <c r="C235">
-        <v>67269.39330332018</v>
+        <v>98191.2554848216</v>
       </c>
       <c r="D235">
-        <v>-24.63897483683293</v>
+        <v>-16.87980137034441</v>
       </c>
       <c r="E235">
-        <v>6.082218796260268E-125</v>
+        <v>1.227456704484635E-59</v>
       </c>
     </row>
     <row r="236">
@@ -4837,16 +4837,16 @@
         </is>
       </c>
       <c r="B236">
-        <v>-1326899.522477918</v>
+        <v>-1326899.522476916</v>
       </c>
       <c r="C236">
-        <v>67284.97531654128</v>
+        <v>98214.00011452625</v>
       </c>
       <c r="D236">
-        <v>-19.72059165119013</v>
+        <v>-13.510288970306</v>
       </c>
       <c r="E236">
-        <v>1.055347258733359E-82</v>
+        <v>9.094722250891581E-40</v>
       </c>
     </row>
     <row r="237">
@@ -4856,16 +4856,16 @@
         </is>
       </c>
       <c r="B237">
-        <v>-1740757.744700139</v>
+        <v>-1740757.744699141</v>
       </c>
       <c r="C237">
-        <v>67284.9753165412</v>
+        <v>98214.00011452635</v>
       </c>
       <c r="D237">
-        <v>-25.87141834430004</v>
+        <v>-17.72413039555726</v>
       </c>
       <c r="E237">
-        <v>1.268184410249594E-136</v>
+        <v>3.954406629014079E-65</v>
       </c>
     </row>
     <row r="238">
@@ -4875,16 +4875,16 @@
         </is>
       </c>
       <c r="B238">
-        <v>-1715670.666667306</v>
+        <v>-1715670.666666309</v>
       </c>
       <c r="C238">
-        <v>67269.39330332031</v>
+        <v>98191.25548482164</v>
       </c>
       <c r="D238">
-        <v>-25.50447658909722</v>
+        <v>-17.47274396477716</v>
       </c>
       <c r="E238">
-        <v>4.206502080274957E-133</v>
+        <v>1.787756100151633E-63</v>
       </c>
     </row>
     <row r="239">
@@ -4894,16 +4894,16 @@
         </is>
       </c>
       <c r="B239">
-        <v>-1387128.411366805</v>
+        <v>-1387128.411365808</v>
       </c>
       <c r="C239">
-        <v>67284.97531654115</v>
+        <v>98214.00011452638</v>
       </c>
       <c r="D239">
-        <v>-20.61572297293831</v>
+        <v>-14.12353034952544</v>
       </c>
       <c r="E239">
-        <v>7.719808154677388E-90</v>
+        <v>3.985916881181072E-43</v>
       </c>
     </row>
     <row r="240">
@@ -4913,16 +4913,16 @@
         </is>
       </c>
       <c r="B240">
-        <v>39570.48101266717</v>
+        <v>39570.48101265996</v>
       </c>
       <c r="C240">
-        <v>13108.84995592444</v>
+        <v>19134.62232862126</v>
       </c>
       <c r="D240">
-        <v>3.018608127006869</v>
+        <v>2.068004287362968</v>
       </c>
       <c r="E240">
-        <v>0.002555355599865752</v>
+        <v>0.03877589844245984</v>
       </c>
     </row>
     <row r="241">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="B241">
-        <v>60192.39280795461</v>
+        <v>60192.39280794915</v>
       </c>
       <c r="C241">
-        <v>13124.71083423971</v>
+        <v>19157.77400991945</v>
       </c>
       <c r="D241">
-        <v>4.586188112497296</v>
+        <v>3.141930413041876</v>
       </c>
       <c r="E241">
-        <v>4.651782457244695E-06</v>
+        <v>0.001704489068942346</v>
       </c>
     </row>
     <row r="242">
@@ -4951,16 +4951,16 @@
         </is>
       </c>
       <c r="B242">
-        <v>121340.4690791334</v>
+        <v>121340.4690791433</v>
       </c>
       <c r="C242">
-        <v>13124.71083423967</v>
+        <v>19157.77400991941</v>
       </c>
       <c r="D242">
-        <v>9.24519180739442</v>
+        <v>6.333745716820559</v>
       </c>
       <c r="E242">
-        <v>3.717335639332308E-20</v>
+        <v>2.984912309027638E-10</v>
       </c>
     </row>
     <row r="243">
@@ -4970,16 +4970,16 @@
         </is>
       </c>
       <c r="B243">
-        <v>175050.561181435</v>
+        <v>175050.5611814408</v>
       </c>
       <c r="C243">
-        <v>13108.84995592437</v>
+        <v>19134.62232862127</v>
       </c>
       <c r="D243">
-        <v>13.35361696640088</v>
+        <v>9.148367716649568</v>
       </c>
       <c r="E243">
-        <v>7.901283432218022E-40</v>
+        <v>1.457520269630617E-19</v>
       </c>
     </row>
     <row r="244">
@@ -4989,16 +4989,16 @@
         </is>
       </c>
       <c r="B244">
-        <v>203374.7292192227</v>
+        <v>203374.72921923</v>
       </c>
       <c r="C244">
-        <v>14173.20086600577</v>
+        <v>20688.22563920975</v>
       </c>
       <c r="D244">
-        <v>14.34924482775194</v>
+        <v>9.830457805611914</v>
       </c>
       <c r="E244">
-        <v>1.420941055626792E-45</v>
+        <v>2.830615163921725E-22</v>
       </c>
     </row>
     <row r="245">
@@ -5008,16 +5008,16 @@
         </is>
       </c>
       <c r="B245">
-        <v>229924.3874167867</v>
+        <v>229924.3874167899</v>
       </c>
       <c r="C245">
-        <v>16492.18899294029</v>
+        <v>24073.1878702706</v>
       </c>
       <c r="D245">
-        <v>13.94141114410034</v>
+        <v>9.551056912605128</v>
       </c>
       <c r="E245">
-        <v>3.554362822443821E-43</v>
+        <v>3.833393830814961E-21</v>
       </c>
     </row>
     <row r="246">
@@ -5027,16 +5027,16 @@
         </is>
       </c>
       <c r="B246">
-        <v>263371.3283450475</v>
+        <v>263371.3283450519</v>
       </c>
       <c r="C246">
-        <v>16492.18899294024</v>
+        <v>24073.18787027059</v>
       </c>
       <c r="D246">
-        <v>15.9694585392993</v>
+        <v>10.94044252736069</v>
       </c>
       <c r="E246">
-        <v>1.050732442106778E-55</v>
+        <v>4.723431143494E-27</v>
       </c>
     </row>
     <row r="247">
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B247">
-        <v>257836.7009809025</v>
+        <v>257836.7009809048</v>
       </c>
       <c r="C247">
-        <v>16552.40193688848</v>
+        <v>24161.07902362256</v>
       </c>
       <c r="D247">
-        <v>15.57699613409525</v>
+        <v>10.67157227244756</v>
       </c>
       <c r="E247">
-        <v>3.656235089845923E-53</v>
+        <v>7.453703229165826E-26</v>
       </c>
     </row>
   </sheetData>
